--- a/ExcelConfig/道具表.xlsx
+++ b/ExcelConfig/道具表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,14 @@
   </si>
   <si>
     <t>道具材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃木剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来装备士兵的武器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,16 +484,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -507,26 +515,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="27" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -543,7 +551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -560,7 +568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -577,7 +585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -591,7 +599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -603,6 +611,20 @@
       </c>
       <c r="E5" s="3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/道具表.xlsx
+++ b/ExcelConfig/道具表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,54 @@
   </si>
   <si>
     <t>用来装备士兵的武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粮食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来制作干粮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干粮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出战需要，养活工人也需要。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来铸造金币的原料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来铸造武器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧的武器需要用钢来锻造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级装备必备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,13 +563,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -615,15 +663,99 @@
     </row>
     <row r="6" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>21</v>
       </c>
     </row>

--- a/ExcelConfig/道具表.xlsx
+++ b/ExcelConfig/道具表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,6 +41,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>hero1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Int</t>
   </si>
   <si>
@@ -59,95 +67,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木材</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个是非常好的东西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木材可以制作无限多的东西</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃木剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用来装备士兵的武器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粮食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用来制作干粮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干粮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出战需要，养活工人也需要。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用来铸造金币的原料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用来铸造武器。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚韧的武器需要用钢来锻造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精钢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级装备必备</t>
+    <t>道具表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoinType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售货币类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pars1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pars2</t>
+  </si>
+  <si>
+    <t>Pars3</t>
+  </si>
+  <si>
+    <t>Pars4</t>
+  </si>
+  <si>
+    <t>Pars5</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>参数3</t>
+  </si>
+  <si>
+    <t>参数4</t>
+  </si>
+  <si>
+    <t>参数5</t>
+  </si>
+  <si>
+    <t>CanSale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可以售卖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,16 +535,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -563,26 +555,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="16.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2"/>
+    <col min="7" max="8" width="12.21875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -593,30 +587,78 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -627,142 +669,56 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
+      <c r="C5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="2">
-        <v>30</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:Q2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/道具表.xlsx
+++ b/ExcelConfig/道具表.xlsx
@@ -14,6 +14,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="I3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+参数1 </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
@@ -147,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +219,21 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -554,26 +605,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="16.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2"/>
-    <col min="7" max="8" width="12.21875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="20" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.5546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
@@ -724,5 +777,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ExcelConfig/道具表.xlsx
+++ b/ExcelConfig/道具表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,14 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hero1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Int</t>
   </si>
   <si>
@@ -176,6 +168,18 @@
   </si>
   <si>
     <t>是否可以售卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃木剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -575,27 +579,27 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -606,30 +610,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -640,78 +644,78 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -722,50 +726,58 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="J3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/道具表.xlsx
+++ b/ExcelConfig/道具表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="4410" yWindow="-330" windowWidth="8340" windowHeight="9765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="ItemConfig" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -20,7 +20,35 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+暂定
+枚举1：金币
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,15 +199,116 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>木头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃木剑</t>
+    <t>生铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锰铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陨铁</t>
+  </si>
+  <si>
+    <t>钨钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑檀木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阔叶檀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天杉木</t>
+  </si>
+  <si>
+    <t>蛮皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻革</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重革</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绒面革</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绢布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝绸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚕丝布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秀水绫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砥石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄铁石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑墨石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏目石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔雀石</t>
+  </si>
+  <si>
+    <t>小麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干粮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复10点生命</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -187,7 +316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,16 +371,42 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -259,16 +414,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -287,7 +459,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -329,7 +501,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,7 +536,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -610,13 +782,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -624,10 +796,10 @@
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
@@ -756,33 +928,633 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>34</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>16</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="10">
+        <v>9</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:R2">
       <formula1>"String,Int,DateTime,Float"</formula1>
     </dataValidation>

--- a/ExcelConfig/道具表.xlsx
+++ b/ExcelConfig/道具表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="-330" windowWidth="8340" windowHeight="9765" activeTab="1"/>
+    <workbookView xWindow="1740" yWindow="-135" windowWidth="18630" windowHeight="9315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="261">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>陨铁</t>
+  </si>
+  <si>
+    <t>孔雀石</t>
+  </si>
+  <si>
+    <t>干粮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复10点生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>生铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,9 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>陨铁</t>
-  </si>
-  <si>
     <t>钨钢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,15 +241,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黑檀木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阔叶檀</t>
+    <t>樟木</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>天杉木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祥龙木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蛮皮</t>
@@ -281,42 +297,966 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玄铁石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑墨石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>藏魂石</t>
+  </si>
+  <si>
+    <t>黑晶石</t>
   </si>
   <si>
     <t>夏目石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔雀石</t>
-  </si>
-  <si>
-    <t>小麦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干粮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复10点生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵纹布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏风棉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打磨杵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青麟布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璃焱骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子午铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄心玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油丝布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百纳布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退尘丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省身木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浣火藤</t>
+  </si>
+  <si>
+    <t>褐铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇国锦帛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火云木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云锦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛尘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梵文布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛龙钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玲珑丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤火狐皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽冥布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊隍革</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刻魂石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾龙木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火云石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬甲皮</t>
+  </si>
+  <si>
+    <t>炭火炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绣火扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省身禅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度人经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡魔剜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菩提子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比丘袈裟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云锦袈裟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦陀袈裟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金缕袈裟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降妖杵</t>
+  </si>
+  <si>
+    <t>乾坤圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捆仙绳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困龙鼎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜纹袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰饶罩衫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天陨袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羽化长袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭离爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九幽幡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮啸铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百妖幡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞隍甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳鳞甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遮雾甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引魂幡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰都令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百夜符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往生印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑纹袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月冕袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百转袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥骨长袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皂缨枪</t>
+  </si>
+  <si>
+    <t>一丈绫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千祖爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唤风铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定风罡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晃金绳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊脂玉净瓶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火芭蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七星剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫金葫芦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻思瞳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升星装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干粮扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升星材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还魂幡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良耕券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦产量增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粗铁矿锄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻钢矿锄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精致矿锄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红幡矿锄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻火矿锄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿锄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回程卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵纹布卷轴</t>
+  </si>
+  <si>
+    <t>藏风棉卷轴</t>
+  </si>
+  <si>
+    <t>硕石卷轴</t>
+  </si>
+  <si>
+    <t>打磨杵卷轴</t>
+  </si>
+  <si>
+    <t>青麟布卷轴</t>
+  </si>
+  <si>
+    <t>璃焱骨卷轴</t>
+  </si>
+  <si>
+    <t>子午铜卷轴</t>
+  </si>
+  <si>
+    <t>摄心玉卷轴</t>
+  </si>
+  <si>
+    <t>油丝布卷轴</t>
+  </si>
+  <si>
+    <t>百纳布卷轴</t>
+  </si>
+  <si>
+    <t>退尘丝卷轴</t>
+  </si>
+  <si>
+    <t>省身木卷轴</t>
+  </si>
+  <si>
+    <t>浣火藤卷轴</t>
+  </si>
+  <si>
+    <t>褐铁卷轴</t>
+  </si>
+  <si>
+    <t>镇国锦帛卷轴</t>
+  </si>
+  <si>
+    <t>火云木卷轴</t>
+  </si>
+  <si>
+    <t>云锦卷轴</t>
+  </si>
+  <si>
+    <t>佛尘卷轴</t>
+  </si>
+  <si>
+    <t>梵文布卷轴</t>
+  </si>
+  <si>
+    <t>盛龙钢卷轴</t>
+  </si>
+  <si>
+    <t>玲珑丝卷轴</t>
+  </si>
+  <si>
+    <t>风钢卷轴</t>
+  </si>
+  <si>
+    <t>赤火狐皮卷轴</t>
+  </si>
+  <si>
+    <t>幽冥布卷轴</t>
+  </si>
+  <si>
+    <t>樊隍革卷轴</t>
+  </si>
+  <si>
+    <t>刻魂石卷轴</t>
+  </si>
+  <si>
+    <t>腾龙木卷轴</t>
+  </si>
+  <si>
+    <t>赤铜卷轴</t>
+  </si>
+  <si>
+    <t>火云石卷轴</t>
+  </si>
+  <si>
+    <t>硬甲皮卷轴</t>
+  </si>
+  <si>
+    <t>炭火炉卷轴</t>
+  </si>
+  <si>
+    <t>绣火扇卷轴</t>
+  </si>
+  <si>
+    <t>省身禅卷轴</t>
+  </si>
+  <si>
+    <t>度人经卷轴</t>
+  </si>
+  <si>
+    <t>渡魔剜卷轴</t>
+  </si>
+  <si>
+    <t>菩提子卷轴</t>
+  </si>
+  <si>
+    <t>比丘袈裟卷轴</t>
+  </si>
+  <si>
+    <t>云锦袈裟卷轴</t>
+  </si>
+  <si>
+    <t>苦陀袈裟卷轴</t>
+  </si>
+  <si>
+    <t>金缕袈裟卷轴</t>
+  </si>
+  <si>
+    <t>降妖杵卷轴</t>
+  </si>
+  <si>
+    <t>乾坤圈卷轴</t>
+  </si>
+  <si>
+    <t>捆仙绳卷轴</t>
+  </si>
+  <si>
+    <t>困龙鼎卷轴</t>
+  </si>
+  <si>
+    <t>夜纹袍卷轴</t>
+  </si>
+  <si>
+    <t>丰饶罩衫卷轴</t>
+  </si>
+  <si>
+    <t>天陨袍卷轴</t>
+  </si>
+  <si>
+    <t>羽化长袍卷轴</t>
+  </si>
+  <si>
+    <t>灭离爪卷轴</t>
+  </si>
+  <si>
+    <t>九幽幡卷轴</t>
+  </si>
+  <si>
+    <t>狮啸铃卷轴</t>
+  </si>
+  <si>
+    <t>百妖幡卷轴</t>
+  </si>
+  <si>
+    <t>兽甲卷轴</t>
+  </si>
+  <si>
+    <t>飞隍甲卷轴</t>
+  </si>
+  <si>
+    <t>阳鳞甲卷轴</t>
+  </si>
+  <si>
+    <t>遮雾甲卷轴</t>
+  </si>
+  <si>
+    <t>引魂幡卷轴</t>
+  </si>
+  <si>
+    <t>丰都令卷轴</t>
+  </si>
+  <si>
+    <t>百夜符卷轴</t>
+  </si>
+  <si>
+    <t>往生印卷轴</t>
+  </si>
+  <si>
+    <t>黑纹袍卷轴</t>
+  </si>
+  <si>
+    <t>月冕袍卷轴</t>
+  </si>
+  <si>
+    <t>百转袍卷轴</t>
+  </si>
+  <si>
+    <t>冥骨长袍卷轴</t>
+  </si>
+  <si>
+    <t>皂缨枪卷轴</t>
+  </si>
+  <si>
+    <t>一丈绫卷轴</t>
+  </si>
+  <si>
+    <t>千祖爪卷轴</t>
+  </si>
+  <si>
+    <t>唤风铃卷轴</t>
+  </si>
+  <si>
+    <t>定风罡卷轴</t>
+  </si>
+  <si>
+    <t>晃金绳卷轴</t>
+  </si>
+  <si>
+    <t>羊脂玉净瓶卷轴</t>
+  </si>
+  <si>
+    <t>火芭蕉卷轴</t>
+  </si>
+  <si>
+    <t>七星剑卷轴</t>
+  </si>
+  <si>
+    <t>紫金葫芦卷轴</t>
+  </si>
+  <si>
+    <t>幻思瞳卷轴</t>
+  </si>
+  <si>
+    <t>还魂幡卷轴</t>
+  </si>
+  <si>
+    <t>粗铁矿锄卷轴</t>
+  </si>
+  <si>
+    <t>轻钢矿锄卷轴</t>
+  </si>
+  <si>
+    <t>精致矿锄卷轴</t>
+  </si>
+  <si>
+    <t>红幡矿锄卷轴</t>
+  </si>
+  <si>
+    <t>锻火矿锄卷轴</t>
+  </si>
+  <si>
+    <t>制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成就</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>任务道具</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>材料</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图纸卷轴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回程卷</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>佣兵卖身契</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天赋书</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金币包</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宝箱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>干粮</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>钥匙</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时效道具</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>功能道具</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，对于功能道具说明</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加的数值（在干粮道具的恢复效果上做加法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活道具无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加的背包大小（加法）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产效率时间缩减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对应以上定义</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，对于宝箱类的说明</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>13-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复活道具</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地契</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1:需要开启的钥匙ID</t>
+  </si>
+  <si>
+    <t>参数2:获取的道具，书写格式，道具ID:数量|道具ID:数量……</t>
+  </si>
+  <si>
+    <t>参数1:1-增加干粮恢复数值
+      3-盘缠点击收益增加
+      4-背包容量扩展
+      5-替换单位生产效率
+      6-更改小麦的生产方式</t>
+  </si>
+  <si>
+    <t>小麦消耗人力:生产数量</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,8 +1325,41 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -405,8 +1378,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -425,11 +1416,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -441,6 +1447,25 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -782,18 +1807,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C181" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="G199" sqref="G199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="19" style="2" customWidth="1"/>
@@ -928,15 +1953,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>32</v>
+      <c r="C4" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -956,10 +1981,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -979,10 +2004,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -1001,11 +2026,11 @@
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>35</v>
+      <c r="C7" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -1024,11 +2049,11 @@
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>36</v>
+      <c r="C8" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -1044,14 +2069,17 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>233</v>
+      </c>
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>37</v>
+      <c r="C9" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -1067,14 +2095,17 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>234</v>
+      </c>
       <c r="B10" s="2">
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -1090,14 +2121,17 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -1113,14 +2147,17 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="B12" s="2">
         <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -1136,14 +2173,17 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="B13" s="2">
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
@@ -1159,14 +2199,17 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>42</v>
+      <c r="C14" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
@@ -1182,14 +2225,17 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="B15" s="2">
         <v>12</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -1205,14 +2251,17 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>240</v>
+      </c>
       <c r="B16" s="2">
         <v>13</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
@@ -1227,15 +2276,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="B17" s="2">
         <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -1250,15 +2302,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="B18" s="2">
         <v>15</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
@@ -1273,15 +2328,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>47</v>
+      <c r="C19" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
@@ -1296,15 +2354,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>244</v>
+      </c>
       <c r="B20" s="2">
         <v>17</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>48</v>
+      <c r="C20" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
@@ -1319,15 +2380,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="B21" s="2">
         <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E21" s="2">
         <v>2</v>
@@ -1342,15 +2406,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>254</v>
+      </c>
       <c r="B22" s="2">
         <v>19</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
@@ -1365,15 +2432,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>20</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -1388,15 +2455,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="B24" s="2">
         <v>21</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>52</v>
+      <c r="C24" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
@@ -1411,15 +2481,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
+        <v>253</v>
+      </c>
       <c r="B25" s="2">
         <v>22</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>53</v>
+      <c r="C25" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
@@ -1434,15 +2507,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>257</v>
+      </c>
       <c r="B26" s="2">
         <v>23</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
@@ -1457,15 +2533,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="62.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>258</v>
+      </c>
       <c r="B27" s="2">
         <v>24</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>55</v>
+      <c r="C27" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
@@ -1480,15 +2559,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>25</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
@@ -1503,15 +2582,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
+        <v>247</v>
+      </c>
       <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>57</v>
+      <c r="C29" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
@@ -1526,15 +2608,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>259</v>
+      </c>
       <c r="B30" s="2">
         <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E30" s="10">
         <v>9</v>
@@ -1550,6 +2635,3904 @@
       </c>
       <c r="I30" s="2">
         <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <v>28</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B32" s="2">
+        <v>29</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" s="2">
+        <v>30</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" s="2">
+        <v>31</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" s="2">
+        <v>32</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B36" s="2">
+        <v>33</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B37" s="2">
+        <v>34</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B38" s="2">
+        <v>35</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
+        <v>36</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B40" s="2">
+        <v>37</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="2">
+        <v>38</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B42" s="2">
+        <v>39</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B43" s="2">
+        <v>40</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B44" s="2">
+        <v>41</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B45" s="2">
+        <v>42</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B46" s="2">
+        <v>43</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B47" s="2">
+        <v>44</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B48" s="2">
+        <v>45</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" s="2">
+        <v>2</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B49" s="2">
+        <v>46</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B50" s="2">
+        <v>47</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50" s="2">
+        <v>2</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B51" s="2">
+        <v>48</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2</v>
+      </c>
+      <c r="F51" s="2">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B52" s="2">
+        <v>49</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B53" s="2">
+        <v>50</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="2">
+        <v>2</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B54" s="2">
+        <v>51</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="2">
+        <v>2</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B55" s="2">
+        <v>52</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" s="2">
+        <v>2</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B56" s="2">
+        <v>53</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="2">
+        <v>2</v>
+      </c>
+      <c r="F56" s="2">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B57" s="2">
+        <v>54</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" s="2">
+        <v>2</v>
+      </c>
+      <c r="F57" s="2">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B58" s="2">
+        <v>55</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" s="2">
+        <v>2</v>
+      </c>
+      <c r="F58" s="2">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B59" s="2">
+        <v>56</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" s="2">
+        <v>2</v>
+      </c>
+      <c r="F59" s="2">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B60" s="2">
+        <v>57</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E60" s="2">
+        <v>2</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B61" s="2">
+        <v>58</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2</v>
+      </c>
+      <c r="F61" s="2">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" s="2">
+        <v>59</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="2">
+        <v>12</v>
+      </c>
+      <c r="F62" s="2">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2">
+        <v>1</v>
+      </c>
+      <c r="J62" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="2">
+        <v>60</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" s="2">
+        <v>12</v>
+      </c>
+      <c r="F63" s="2">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2">
+        <v>1</v>
+      </c>
+      <c r="J63" s="2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B64" s="2">
+        <v>61</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="2">
+        <v>2</v>
+      </c>
+      <c r="F64" s="2">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B65" s="2">
+        <v>62</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="2">
+        <v>2</v>
+      </c>
+      <c r="F65" s="2">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B66" s="2">
+        <v>63</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" s="2">
+        <v>2</v>
+      </c>
+      <c r="F66" s="2">
+        <v>1</v>
+      </c>
+      <c r="G66" s="2">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B67" s="2">
+        <v>64</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" s="2">
+        <v>2</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1</v>
+      </c>
+      <c r="G67" s="2">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B68" s="2">
+        <v>65</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" s="2">
+        <v>2</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B69" s="2">
+        <v>66</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2</v>
+      </c>
+      <c r="F69" s="2">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B70" s="2">
+        <v>67</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="2">
+        <v>2</v>
+      </c>
+      <c r="F70" s="2">
+        <v>1</v>
+      </c>
+      <c r="G70" s="2">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B71" s="2">
+        <v>68</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E71" s="2">
+        <v>2</v>
+      </c>
+      <c r="F71" s="2">
+        <v>1</v>
+      </c>
+      <c r="G71" s="2">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="2">
+        <v>69</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E72" s="2">
+        <v>2</v>
+      </c>
+      <c r="F72" s="2">
+        <v>1</v>
+      </c>
+      <c r="G72" s="2">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B73" s="2">
+        <v>70</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2</v>
+      </c>
+      <c r="F73" s="2">
+        <v>1</v>
+      </c>
+      <c r="G73" s="2">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B74" s="2">
+        <v>71</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E74" s="2">
+        <v>2</v>
+      </c>
+      <c r="F74" s="2">
+        <v>1</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B75" s="2">
+        <v>72</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" s="2">
+        <v>2</v>
+      </c>
+      <c r="F75" s="2">
+        <v>1</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B76" s="2">
+        <v>73</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E76" s="2">
+        <v>2</v>
+      </c>
+      <c r="F76" s="2">
+        <v>1</v>
+      </c>
+      <c r="G76" s="2">
+        <v>0</v>
+      </c>
+      <c r="H76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B77" s="2">
+        <v>74</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E77" s="2">
+        <v>2</v>
+      </c>
+      <c r="F77" s="2">
+        <v>1</v>
+      </c>
+      <c r="G77" s="2">
+        <v>0</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B78" s="2">
+        <v>75</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E78" s="2">
+        <v>2</v>
+      </c>
+      <c r="F78" s="2">
+        <v>1</v>
+      </c>
+      <c r="G78" s="2">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B79" s="2">
+        <v>76</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E79" s="2">
+        <v>2</v>
+      </c>
+      <c r="F79" s="2">
+        <v>1</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B80" s="2">
+        <v>77</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="2">
+        <v>2</v>
+      </c>
+      <c r="F80" s="2">
+        <v>1</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B81" s="2">
+        <v>78</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E81" s="2">
+        <v>2</v>
+      </c>
+      <c r="F81" s="2">
+        <v>1</v>
+      </c>
+      <c r="G81" s="2">
+        <v>0</v>
+      </c>
+      <c r="H81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B82" s="2">
+        <v>79</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E82" s="2">
+        <v>2</v>
+      </c>
+      <c r="F82" s="2">
+        <v>1</v>
+      </c>
+      <c r="G82" s="2">
+        <v>0</v>
+      </c>
+      <c r="H82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B83" s="2">
+        <v>80</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E83" s="2">
+        <v>2</v>
+      </c>
+      <c r="F83" s="2">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2">
+        <v>0</v>
+      </c>
+      <c r="H83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B84" s="2">
+        <v>81</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E84" s="2">
+        <v>2</v>
+      </c>
+      <c r="F84" s="2">
+        <v>1</v>
+      </c>
+      <c r="G84" s="2">
+        <v>0</v>
+      </c>
+      <c r="H84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B85" s="2">
+        <v>82</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E85" s="2">
+        <v>2</v>
+      </c>
+      <c r="F85" s="2">
+        <v>1</v>
+      </c>
+      <c r="G85" s="2">
+        <v>0</v>
+      </c>
+      <c r="H85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B86" s="2">
+        <v>83</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E86" s="2">
+        <v>2</v>
+      </c>
+      <c r="F86" s="2">
+        <v>1</v>
+      </c>
+      <c r="G86" s="2">
+        <v>0</v>
+      </c>
+      <c r="H86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B87" s="2">
+        <v>84</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E87" s="2">
+        <v>2</v>
+      </c>
+      <c r="F87" s="2">
+        <v>1</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B88" s="2">
+        <v>85</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E88" s="2">
+        <v>2</v>
+      </c>
+      <c r="F88" s="2">
+        <v>1</v>
+      </c>
+      <c r="G88" s="2">
+        <v>0</v>
+      </c>
+      <c r="H88" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B89" s="2">
+        <v>86</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E89" s="2">
+        <v>2</v>
+      </c>
+      <c r="F89" s="2">
+        <v>1</v>
+      </c>
+      <c r="G89" s="2">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B90" s="2">
+        <v>87</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E90" s="2">
+        <v>2</v>
+      </c>
+      <c r="F90" s="2">
+        <v>1</v>
+      </c>
+      <c r="G90" s="2">
+        <v>0</v>
+      </c>
+      <c r="H90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B91" s="2">
+        <v>88</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E91" s="2">
+        <v>2</v>
+      </c>
+      <c r="F91" s="2">
+        <v>1</v>
+      </c>
+      <c r="G91" s="2">
+        <v>0</v>
+      </c>
+      <c r="H91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B92" s="2">
+        <v>89</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E92" s="2">
+        <v>2</v>
+      </c>
+      <c r="F92" s="2">
+        <v>1</v>
+      </c>
+      <c r="G92" s="2">
+        <v>0</v>
+      </c>
+      <c r="H92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B93" s="2">
+        <v>90</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E93" s="2">
+        <v>2</v>
+      </c>
+      <c r="F93" s="2">
+        <v>1</v>
+      </c>
+      <c r="G93" s="2">
+        <v>0</v>
+      </c>
+      <c r="H93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B94" s="2">
+        <v>91</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E94" s="2">
+        <v>2</v>
+      </c>
+      <c r="F94" s="2">
+        <v>1</v>
+      </c>
+      <c r="G94" s="2">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B95" s="2">
+        <v>92</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E95" s="2">
+        <v>2</v>
+      </c>
+      <c r="F95" s="2">
+        <v>1</v>
+      </c>
+      <c r="G95" s="2">
+        <v>0</v>
+      </c>
+      <c r="H95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="2">
+        <v>93</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E96" s="2">
+        <v>2</v>
+      </c>
+      <c r="F96" s="2">
+        <v>1</v>
+      </c>
+      <c r="G96" s="2">
+        <v>0</v>
+      </c>
+      <c r="H96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B97" s="2">
+        <v>94</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E97" s="2">
+        <v>2</v>
+      </c>
+      <c r="F97" s="2">
+        <v>1</v>
+      </c>
+      <c r="G97" s="2">
+        <v>0</v>
+      </c>
+      <c r="H97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B98" s="2">
+        <v>95</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E98" s="2">
+        <v>2</v>
+      </c>
+      <c r="F98" s="2">
+        <v>1</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0</v>
+      </c>
+      <c r="H98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B99" s="2">
+        <v>96</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E99" s="2">
+        <v>2</v>
+      </c>
+      <c r="F99" s="2">
+        <v>1</v>
+      </c>
+      <c r="G99" s="2">
+        <v>0</v>
+      </c>
+      <c r="H99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B100" s="2">
+        <v>97</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E100" s="2">
+        <v>2</v>
+      </c>
+      <c r="F100" s="2">
+        <v>1</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0</v>
+      </c>
+      <c r="H100" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B101" s="2">
+        <v>98</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E101" s="2">
+        <v>2</v>
+      </c>
+      <c r="F101" s="2">
+        <v>1</v>
+      </c>
+      <c r="G101" s="2">
+        <v>0</v>
+      </c>
+      <c r="H101" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B102" s="2">
+        <v>99</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E102" s="2">
+        <v>2</v>
+      </c>
+      <c r="F102" s="2">
+        <v>1</v>
+      </c>
+      <c r="G102" s="2">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B103" s="2">
+        <v>100</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E103" s="2">
+        <v>2</v>
+      </c>
+      <c r="F103" s="2">
+        <v>1</v>
+      </c>
+      <c r="G103" s="2">
+        <v>0</v>
+      </c>
+      <c r="H103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B104" s="2">
+        <v>101</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E104" s="2">
+        <v>2</v>
+      </c>
+      <c r="F104" s="2">
+        <v>1</v>
+      </c>
+      <c r="G104" s="2">
+        <v>0</v>
+      </c>
+      <c r="H104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B105" s="2">
+        <v>102</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E105" s="2">
+        <v>2</v>
+      </c>
+      <c r="F105" s="2">
+        <v>1</v>
+      </c>
+      <c r="G105" s="2">
+        <v>0</v>
+      </c>
+      <c r="H105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B106" s="2">
+        <v>103</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E106" s="2">
+        <v>2</v>
+      </c>
+      <c r="F106" s="2">
+        <v>1</v>
+      </c>
+      <c r="G106" s="2">
+        <v>0</v>
+      </c>
+      <c r="H106" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="2">
+        <v>104</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E107" s="2">
+        <v>2</v>
+      </c>
+      <c r="F107" s="2">
+        <v>1</v>
+      </c>
+      <c r="G107" s="2">
+        <v>0</v>
+      </c>
+      <c r="H107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" s="2">
+        <v>105</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E108" s="2">
+        <v>13</v>
+      </c>
+      <c r="F108" s="2">
+        <v>1</v>
+      </c>
+      <c r="G108" s="2">
+        <v>0</v>
+      </c>
+      <c r="H108" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" s="2">
+        <v>106</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E109" s="2">
+        <v>12</v>
+      </c>
+      <c r="F109" s="2">
+        <v>1</v>
+      </c>
+      <c r="G109" s="2">
+        <v>0</v>
+      </c>
+      <c r="H109" s="2">
+        <v>0</v>
+      </c>
+      <c r="I109" s="2">
+        <v>6</v>
+      </c>
+      <c r="J109" s="23">
+        <v>8.5416666666666655E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" s="2">
+        <v>107</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E110" s="2">
+        <v>2</v>
+      </c>
+      <c r="F110" s="2">
+        <v>1</v>
+      </c>
+      <c r="G110" s="2">
+        <v>0</v>
+      </c>
+      <c r="H110" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" s="2">
+        <v>108</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E111" s="2">
+        <v>2</v>
+      </c>
+      <c r="F111" s="2">
+        <v>1</v>
+      </c>
+      <c r="G111" s="2">
+        <v>0</v>
+      </c>
+      <c r="H111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" s="2">
+        <v>109</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E112" s="2">
+        <v>2</v>
+      </c>
+      <c r="F112" s="2">
+        <v>1</v>
+      </c>
+      <c r="G112" s="2">
+        <v>0</v>
+      </c>
+      <c r="H112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="2">
+        <v>110</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E113" s="2">
+        <v>2</v>
+      </c>
+      <c r="F113" s="2">
+        <v>1</v>
+      </c>
+      <c r="G113" s="2">
+        <v>0</v>
+      </c>
+      <c r="H113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="2">
+        <v>111</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E114" s="2">
+        <v>2</v>
+      </c>
+      <c r="F114" s="2">
+        <v>1</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0</v>
+      </c>
+      <c r="H114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="2">
+        <v>112</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E115" s="2">
+        <v>4</v>
+      </c>
+      <c r="F115" s="2">
+        <v>1</v>
+      </c>
+      <c r="G115" s="2">
+        <v>0</v>
+      </c>
+      <c r="H115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="2">
+        <v>113</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E116" s="2">
+        <v>3</v>
+      </c>
+      <c r="F116" s="2">
+        <v>1</v>
+      </c>
+      <c r="G116" s="2">
+        <v>0</v>
+      </c>
+      <c r="H116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="2">
+        <v>114</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E117" s="2">
+        <v>3</v>
+      </c>
+      <c r="F117" s="2">
+        <v>1</v>
+      </c>
+      <c r="G117" s="2">
+        <v>0</v>
+      </c>
+      <c r="H117" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="2">
+        <v>115</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E118" s="2">
+        <v>3</v>
+      </c>
+      <c r="F118" s="2">
+        <v>1</v>
+      </c>
+      <c r="G118" s="2">
+        <v>0</v>
+      </c>
+      <c r="H118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="2">
+        <v>116</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E119" s="2">
+        <v>3</v>
+      </c>
+      <c r="F119" s="2">
+        <v>1</v>
+      </c>
+      <c r="G119" s="2">
+        <v>0</v>
+      </c>
+      <c r="H119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="2">
+        <v>117</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E120" s="2">
+        <v>3</v>
+      </c>
+      <c r="F120" s="2">
+        <v>1</v>
+      </c>
+      <c r="G120" s="2">
+        <v>0</v>
+      </c>
+      <c r="H120" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="2">
+        <v>118</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E121" s="2">
+        <v>3</v>
+      </c>
+      <c r="F121" s="2">
+        <v>1</v>
+      </c>
+      <c r="G121" s="2">
+        <v>0</v>
+      </c>
+      <c r="H121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="2">
+        <v>119</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E122" s="2">
+        <v>3</v>
+      </c>
+      <c r="F122" s="2">
+        <v>1</v>
+      </c>
+      <c r="G122" s="2">
+        <v>0</v>
+      </c>
+      <c r="H122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="2">
+        <v>120</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E123" s="2">
+        <v>3</v>
+      </c>
+      <c r="F123" s="2">
+        <v>1</v>
+      </c>
+      <c r="G123" s="2">
+        <v>0</v>
+      </c>
+      <c r="H123" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="2">
+        <v>121</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E124" s="2">
+        <v>3</v>
+      </c>
+      <c r="F124" s="2">
+        <v>1</v>
+      </c>
+      <c r="G124" s="2">
+        <v>0</v>
+      </c>
+      <c r="H124" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="2">
+        <v>122</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E125" s="2">
+        <v>3</v>
+      </c>
+      <c r="F125" s="2">
+        <v>1</v>
+      </c>
+      <c r="G125" s="2">
+        <v>0</v>
+      </c>
+      <c r="H125" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="2">
+        <v>123</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E126" s="2">
+        <v>3</v>
+      </c>
+      <c r="F126" s="2">
+        <v>1</v>
+      </c>
+      <c r="G126" s="2">
+        <v>0</v>
+      </c>
+      <c r="H126" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="2">
+        <v>124</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E127" s="2">
+        <v>3</v>
+      </c>
+      <c r="F127" s="2">
+        <v>1</v>
+      </c>
+      <c r="G127" s="2">
+        <v>0</v>
+      </c>
+      <c r="H127" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="2">
+        <v>125</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E128" s="2">
+        <v>3</v>
+      </c>
+      <c r="F128" s="2">
+        <v>1</v>
+      </c>
+      <c r="G128" s="2">
+        <v>0</v>
+      </c>
+      <c r="H128" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B129" s="2">
+        <v>126</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E129" s="2">
+        <v>3</v>
+      </c>
+      <c r="F129" s="2">
+        <v>1</v>
+      </c>
+      <c r="G129" s="2">
+        <v>0</v>
+      </c>
+      <c r="H129" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B130" s="2">
+        <v>127</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E130" s="2">
+        <v>3</v>
+      </c>
+      <c r="F130" s="2">
+        <v>1</v>
+      </c>
+      <c r="G130" s="2">
+        <v>0</v>
+      </c>
+      <c r="H130" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B131" s="2">
+        <v>128</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E131" s="2">
+        <v>3</v>
+      </c>
+      <c r="F131" s="2">
+        <v>1</v>
+      </c>
+      <c r="G131" s="2">
+        <v>0</v>
+      </c>
+      <c r="H131" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B132" s="2">
+        <v>129</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E132" s="2">
+        <v>3</v>
+      </c>
+      <c r="F132" s="2">
+        <v>1</v>
+      </c>
+      <c r="G132" s="2">
+        <v>0</v>
+      </c>
+      <c r="H132" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B133" s="2">
+        <v>130</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E133" s="2">
+        <v>3</v>
+      </c>
+      <c r="F133" s="2">
+        <v>1</v>
+      </c>
+      <c r="G133" s="2">
+        <v>0</v>
+      </c>
+      <c r="H133" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B134" s="2">
+        <v>131</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E134" s="2">
+        <v>3</v>
+      </c>
+      <c r="F134" s="2">
+        <v>1</v>
+      </c>
+      <c r="G134" s="2">
+        <v>0</v>
+      </c>
+      <c r="H134" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B135" s="2">
+        <v>132</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E135" s="2">
+        <v>3</v>
+      </c>
+      <c r="F135" s="2">
+        <v>1</v>
+      </c>
+      <c r="G135" s="2">
+        <v>0</v>
+      </c>
+      <c r="H135" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B136" s="2">
+        <v>133</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E136" s="2">
+        <v>3</v>
+      </c>
+      <c r="F136" s="2">
+        <v>1</v>
+      </c>
+      <c r="G136" s="2">
+        <v>0</v>
+      </c>
+      <c r="H136" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B137" s="2">
+        <v>134</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E137" s="2">
+        <v>3</v>
+      </c>
+      <c r="F137" s="2">
+        <v>1</v>
+      </c>
+      <c r="G137" s="2">
+        <v>0</v>
+      </c>
+      <c r="H137" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B138" s="2">
+        <v>135</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E138" s="2">
+        <v>3</v>
+      </c>
+      <c r="F138" s="2">
+        <v>1</v>
+      </c>
+      <c r="G138" s="2">
+        <v>0</v>
+      </c>
+      <c r="H138" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B139" s="2">
+        <v>136</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E139" s="2">
+        <v>3</v>
+      </c>
+      <c r="F139" s="2">
+        <v>1</v>
+      </c>
+      <c r="G139" s="2">
+        <v>0</v>
+      </c>
+      <c r="H139" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B140" s="2">
+        <v>137</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E140" s="2">
+        <v>3</v>
+      </c>
+      <c r="F140" s="2">
+        <v>1</v>
+      </c>
+      <c r="G140" s="2">
+        <v>0</v>
+      </c>
+      <c r="H140" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B141" s="2">
+        <v>138</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E141" s="2">
+        <v>3</v>
+      </c>
+      <c r="F141" s="2">
+        <v>1</v>
+      </c>
+      <c r="G141" s="2">
+        <v>0</v>
+      </c>
+      <c r="H141" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B142" s="2">
+        <v>139</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E142" s="2">
+        <v>3</v>
+      </c>
+      <c r="F142" s="2">
+        <v>1</v>
+      </c>
+      <c r="G142" s="2">
+        <v>0</v>
+      </c>
+      <c r="H142" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B143" s="2">
+        <v>140</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E143" s="2">
+        <v>3</v>
+      </c>
+      <c r="F143" s="2">
+        <v>1</v>
+      </c>
+      <c r="G143" s="2">
+        <v>0</v>
+      </c>
+      <c r="H143" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B144" s="2">
+        <v>141</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E144" s="2">
+        <v>3</v>
+      </c>
+      <c r="F144" s="2">
+        <v>1</v>
+      </c>
+      <c r="G144" s="2">
+        <v>0</v>
+      </c>
+      <c r="H144" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B145" s="2">
+        <v>142</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E145" s="2">
+        <v>3</v>
+      </c>
+      <c r="F145" s="2">
+        <v>1</v>
+      </c>
+      <c r="G145" s="2">
+        <v>0</v>
+      </c>
+      <c r="H145" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B146" s="2">
+        <v>143</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E146" s="2">
+        <v>3</v>
+      </c>
+      <c r="F146" s="2">
+        <v>1</v>
+      </c>
+      <c r="G146" s="2">
+        <v>0</v>
+      </c>
+      <c r="H146" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B147" s="2">
+        <v>144</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E147" s="2">
+        <v>3</v>
+      </c>
+      <c r="F147" s="2">
+        <v>1</v>
+      </c>
+      <c r="G147" s="2">
+        <v>0</v>
+      </c>
+      <c r="H147" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B148" s="2">
+        <v>145</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E148" s="2">
+        <v>3</v>
+      </c>
+      <c r="F148" s="2">
+        <v>1</v>
+      </c>
+      <c r="G148" s="2">
+        <v>0</v>
+      </c>
+      <c r="H148" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B149" s="2">
+        <v>146</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E149" s="2">
+        <v>3</v>
+      </c>
+      <c r="F149" s="2">
+        <v>1</v>
+      </c>
+      <c r="G149" s="2">
+        <v>0</v>
+      </c>
+      <c r="H149" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B150" s="2">
+        <v>147</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E150" s="2">
+        <v>3</v>
+      </c>
+      <c r="F150" s="2">
+        <v>1</v>
+      </c>
+      <c r="G150" s="2">
+        <v>0</v>
+      </c>
+      <c r="H150" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B151" s="2">
+        <v>148</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E151" s="2">
+        <v>3</v>
+      </c>
+      <c r="F151" s="2">
+        <v>1</v>
+      </c>
+      <c r="G151" s="2">
+        <v>0</v>
+      </c>
+      <c r="H151" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B152" s="2">
+        <v>149</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E152" s="2">
+        <v>3</v>
+      </c>
+      <c r="F152" s="2">
+        <v>1</v>
+      </c>
+      <c r="G152" s="2">
+        <v>0</v>
+      </c>
+      <c r="H152" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B153" s="2">
+        <v>150</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E153" s="2">
+        <v>3</v>
+      </c>
+      <c r="F153" s="2">
+        <v>1</v>
+      </c>
+      <c r="G153" s="2">
+        <v>0</v>
+      </c>
+      <c r="H153" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B154" s="2">
+        <v>151</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E154" s="2">
+        <v>3</v>
+      </c>
+      <c r="F154" s="2">
+        <v>1</v>
+      </c>
+      <c r="G154" s="2">
+        <v>0</v>
+      </c>
+      <c r="H154" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B155" s="2">
+        <v>152</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E155" s="2">
+        <v>3</v>
+      </c>
+      <c r="F155" s="2">
+        <v>1</v>
+      </c>
+      <c r="G155" s="2">
+        <v>0</v>
+      </c>
+      <c r="H155" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B156" s="2">
+        <v>153</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E156" s="2">
+        <v>3</v>
+      </c>
+      <c r="F156" s="2">
+        <v>1</v>
+      </c>
+      <c r="G156" s="2">
+        <v>0</v>
+      </c>
+      <c r="H156" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B157" s="2">
+        <v>154</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E157" s="2">
+        <v>3</v>
+      </c>
+      <c r="F157" s="2">
+        <v>1</v>
+      </c>
+      <c r="G157" s="2">
+        <v>0</v>
+      </c>
+      <c r="H157" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B158" s="2">
+        <v>155</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E158" s="2">
+        <v>3</v>
+      </c>
+      <c r="F158" s="2">
+        <v>1</v>
+      </c>
+      <c r="G158" s="2">
+        <v>0</v>
+      </c>
+      <c r="H158" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B159" s="2">
+        <v>156</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E159" s="2">
+        <v>3</v>
+      </c>
+      <c r="F159" s="2">
+        <v>1</v>
+      </c>
+      <c r="G159" s="2">
+        <v>0</v>
+      </c>
+      <c r="H159" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B160" s="2">
+        <v>157</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E160" s="2">
+        <v>3</v>
+      </c>
+      <c r="F160" s="2">
+        <v>1</v>
+      </c>
+      <c r="G160" s="2">
+        <v>0</v>
+      </c>
+      <c r="H160" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B161" s="2">
+        <v>158</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E161" s="2">
+        <v>3</v>
+      </c>
+      <c r="F161" s="2">
+        <v>1</v>
+      </c>
+      <c r="G161" s="2">
+        <v>0</v>
+      </c>
+      <c r="H161" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B162" s="2">
+        <v>159</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E162" s="2">
+        <v>3</v>
+      </c>
+      <c r="F162" s="2">
+        <v>1</v>
+      </c>
+      <c r="G162" s="2">
+        <v>0</v>
+      </c>
+      <c r="H162" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B163" s="2">
+        <v>160</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E163" s="2">
+        <v>3</v>
+      </c>
+      <c r="F163" s="2">
+        <v>1</v>
+      </c>
+      <c r="G163" s="2">
+        <v>0</v>
+      </c>
+      <c r="H163" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B164" s="2">
+        <v>161</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E164" s="2">
+        <v>3</v>
+      </c>
+      <c r="F164" s="2">
+        <v>1</v>
+      </c>
+      <c r="G164" s="2">
+        <v>0</v>
+      </c>
+      <c r="H164" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B165" s="2">
+        <v>162</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E165" s="2">
+        <v>3</v>
+      </c>
+      <c r="F165" s="2">
+        <v>1</v>
+      </c>
+      <c r="G165" s="2">
+        <v>0</v>
+      </c>
+      <c r="H165" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B166" s="2">
+        <v>163</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E166" s="2">
+        <v>3</v>
+      </c>
+      <c r="F166" s="2">
+        <v>1</v>
+      </c>
+      <c r="G166" s="2">
+        <v>0</v>
+      </c>
+      <c r="H166" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B167" s="2">
+        <v>164</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E167" s="2">
+        <v>3</v>
+      </c>
+      <c r="F167" s="2">
+        <v>1</v>
+      </c>
+      <c r="G167" s="2">
+        <v>0</v>
+      </c>
+      <c r="H167" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B168" s="2">
+        <v>165</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E168" s="2">
+        <v>3</v>
+      </c>
+      <c r="F168" s="2">
+        <v>1</v>
+      </c>
+      <c r="G168" s="2">
+        <v>0</v>
+      </c>
+      <c r="H168" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B169" s="2">
+        <v>166</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E169" s="2">
+        <v>3</v>
+      </c>
+      <c r="F169" s="2">
+        <v>1</v>
+      </c>
+      <c r="G169" s="2">
+        <v>0</v>
+      </c>
+      <c r="H169" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B170" s="2">
+        <v>167</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E170" s="2">
+        <v>3</v>
+      </c>
+      <c r="F170" s="2">
+        <v>1</v>
+      </c>
+      <c r="G170" s="2">
+        <v>0</v>
+      </c>
+      <c r="H170" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B171" s="2">
+        <v>168</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E171" s="2">
+        <v>3</v>
+      </c>
+      <c r="F171" s="2">
+        <v>1</v>
+      </c>
+      <c r="G171" s="2">
+        <v>0</v>
+      </c>
+      <c r="H171" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B172" s="2">
+        <v>169</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E172" s="2">
+        <v>3</v>
+      </c>
+      <c r="F172" s="2">
+        <v>1</v>
+      </c>
+      <c r="G172" s="2">
+        <v>0</v>
+      </c>
+      <c r="H172" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B173" s="2">
+        <v>170</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E173" s="2">
+        <v>3</v>
+      </c>
+      <c r="F173" s="2">
+        <v>1</v>
+      </c>
+      <c r="G173" s="2">
+        <v>0</v>
+      </c>
+      <c r="H173" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B174" s="2">
+        <v>171</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E174" s="2">
+        <v>3</v>
+      </c>
+      <c r="F174" s="2">
+        <v>1</v>
+      </c>
+      <c r="G174" s="2">
+        <v>0</v>
+      </c>
+      <c r="H174" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B175" s="2">
+        <v>172</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E175" s="2">
+        <v>3</v>
+      </c>
+      <c r="F175" s="2">
+        <v>1</v>
+      </c>
+      <c r="G175" s="2">
+        <v>0</v>
+      </c>
+      <c r="H175" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B176" s="2">
+        <v>173</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E176" s="2">
+        <v>3</v>
+      </c>
+      <c r="F176" s="2">
+        <v>1</v>
+      </c>
+      <c r="G176" s="2">
+        <v>0</v>
+      </c>
+      <c r="H176" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B177" s="2">
+        <v>174</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E177" s="2">
+        <v>3</v>
+      </c>
+      <c r="F177" s="2">
+        <v>1</v>
+      </c>
+      <c r="G177" s="2">
+        <v>0</v>
+      </c>
+      <c r="H177" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B178" s="2">
+        <v>175</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E178" s="2">
+        <v>3</v>
+      </c>
+      <c r="F178" s="2">
+        <v>1</v>
+      </c>
+      <c r="G178" s="2">
+        <v>0</v>
+      </c>
+      <c r="H178" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B179" s="2">
+        <v>176</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E179" s="2">
+        <v>3</v>
+      </c>
+      <c r="F179" s="2">
+        <v>1</v>
+      </c>
+      <c r="G179" s="2">
+        <v>0</v>
+      </c>
+      <c r="H179" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B180" s="2">
+        <v>177</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E180" s="2">
+        <v>3</v>
+      </c>
+      <c r="F180" s="2">
+        <v>1</v>
+      </c>
+      <c r="G180" s="2">
+        <v>0</v>
+      </c>
+      <c r="H180" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B181" s="2">
+        <v>178</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E181" s="2">
+        <v>3</v>
+      </c>
+      <c r="F181" s="2">
+        <v>1</v>
+      </c>
+      <c r="G181" s="2">
+        <v>0</v>
+      </c>
+      <c r="H181" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B182" s="2">
+        <v>179</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E182" s="2">
+        <v>3</v>
+      </c>
+      <c r="F182" s="2">
+        <v>1</v>
+      </c>
+      <c r="G182" s="2">
+        <v>0</v>
+      </c>
+      <c r="H182" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B183" s="2">
+        <v>180</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E183" s="2">
+        <v>3</v>
+      </c>
+      <c r="F183" s="2">
+        <v>1</v>
+      </c>
+      <c r="G183" s="2">
+        <v>0</v>
+      </c>
+      <c r="H183" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B184" s="2">
+        <v>181</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E184" s="2">
+        <v>3</v>
+      </c>
+      <c r="F184" s="2">
+        <v>1</v>
+      </c>
+      <c r="G184" s="2">
+        <v>0</v>
+      </c>
+      <c r="H184" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B185" s="2">
+        <v>182</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E185" s="2">
+        <v>3</v>
+      </c>
+      <c r="F185" s="2">
+        <v>1</v>
+      </c>
+      <c r="G185" s="2">
+        <v>0</v>
+      </c>
+      <c r="H185" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B186" s="2">
+        <v>183</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E186" s="2">
+        <v>3</v>
+      </c>
+      <c r="F186" s="2">
+        <v>1</v>
+      </c>
+      <c r="G186" s="2">
+        <v>0</v>
+      </c>
+      <c r="H186" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B187" s="2">
+        <v>184</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E187" s="2">
+        <v>3</v>
+      </c>
+      <c r="F187" s="2">
+        <v>1</v>
+      </c>
+      <c r="G187" s="2">
+        <v>0</v>
+      </c>
+      <c r="H187" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B188" s="2">
+        <v>185</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E188" s="2">
+        <v>3</v>
+      </c>
+      <c r="F188" s="2">
+        <v>1</v>
+      </c>
+      <c r="G188" s="2">
+        <v>0</v>
+      </c>
+      <c r="H188" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B189" s="2">
+        <v>186</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E189" s="2">
+        <v>3</v>
+      </c>
+      <c r="F189" s="2">
+        <v>1</v>
+      </c>
+      <c r="G189" s="2">
+        <v>0</v>
+      </c>
+      <c r="H189" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B190" s="2">
+        <v>187</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E190" s="2">
+        <v>3</v>
+      </c>
+      <c r="F190" s="2">
+        <v>1</v>
+      </c>
+      <c r="G190" s="2">
+        <v>0</v>
+      </c>
+      <c r="H190" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B191" s="2">
+        <v>188</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E191" s="2">
+        <v>3</v>
+      </c>
+      <c r="F191" s="2">
+        <v>1</v>
+      </c>
+      <c r="G191" s="2">
+        <v>0</v>
+      </c>
+      <c r="H191" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B192" s="2">
+        <v>189</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E192" s="2">
+        <v>3</v>
+      </c>
+      <c r="F192" s="2">
+        <v>1</v>
+      </c>
+      <c r="G192" s="2">
+        <v>0</v>
+      </c>
+      <c r="H192" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B193" s="2">
+        <v>190</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E193" s="2">
+        <v>3</v>
+      </c>
+      <c r="F193" s="2">
+        <v>1</v>
+      </c>
+      <c r="G193" s="2">
+        <v>0</v>
+      </c>
+      <c r="H193" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B194" s="2">
+        <v>191</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E194" s="2">
+        <v>3</v>
+      </c>
+      <c r="F194" s="2">
+        <v>1</v>
+      </c>
+      <c r="G194" s="2">
+        <v>0</v>
+      </c>
+      <c r="H194" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B195" s="2">
+        <v>192</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E195" s="2">
+        <v>3</v>
+      </c>
+      <c r="F195" s="2">
+        <v>1</v>
+      </c>
+      <c r="G195" s="2">
+        <v>0</v>
+      </c>
+      <c r="H195" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B196" s="2">
+        <v>193</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E196" s="2">
+        <v>3</v>
+      </c>
+      <c r="F196" s="2">
+        <v>1</v>
+      </c>
+      <c r="G196" s="2">
+        <v>0</v>
+      </c>
+      <c r="H196" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B197" s="2">
+        <v>194</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E197" s="2">
+        <v>3</v>
+      </c>
+      <c r="F197" s="2">
+        <v>1</v>
+      </c>
+      <c r="G197" s="2">
+        <v>0</v>
+      </c>
+      <c r="H197" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B198" s="2">
+        <v>195</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E198" s="2">
+        <v>2</v>
+      </c>
+      <c r="F198" s="2">
+        <v>1</v>
+      </c>
+      <c r="G198" s="2">
+        <v>0</v>
+      </c>
+      <c r="H198" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/道具表.xlsx
+++ b/ExcelConfig/道具表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="-135" windowWidth="18630" windowHeight="9315" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="-120" windowWidth="15405" windowHeight="9645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -42,13 +42,13 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-暂定
-枚举1：金币
+1：金币
+2：钻石
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-参数1 </t>
+0-不可出售，也不显示在背包
+1-可出售，在背包展示</t>
         </r>
       </text>
     </comment>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="278">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,98 +206,6 @@
     <t>孔雀石</t>
   </si>
   <si>
-    <t>干粮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复10点生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小麦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生铁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰钢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锰铜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钨钢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圆木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柳木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樟木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天杉木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祥龙木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛮皮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兽皮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻革</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重革</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绒面革</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青麻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绢布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丝绸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚕丝布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秀水绫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>砥石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>藏魂石</t>
   </si>
   <si>
@@ -304,613 +213,6 @@
   </si>
   <si>
     <t>夏目石</t>
-  </si>
-  <si>
-    <t>灵纹布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏风棉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硕石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打磨杵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青麟布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>璃焱骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子午铜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摄心玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>油丝布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百纳布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>退尘丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省身木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浣火藤</t>
-  </si>
-  <si>
-    <t>褐铁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>镇国锦帛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火云木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云锦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>佛尘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梵文布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盛龙钢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玲珑丝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风钢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤火狐皮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽冥布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>樊隍革</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刻魂石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腾龙木</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤铜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火云石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬甲皮</t>
-  </si>
-  <si>
-    <t>炭火炉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绣火扇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省身禅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>度人经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渡魔剜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菩提子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比丘袈裟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云锦袈裟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苦陀袈裟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金缕袈裟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降妖杵</t>
-  </si>
-  <si>
-    <t>乾坤圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>捆仙绳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>困龙鼎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜纹袍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丰饶罩衫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天陨袍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羽化长袍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灭离爪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>九幽幡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狮啸铃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百妖幡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兽甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞隍甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳鳞甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遮雾甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引魂幡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丰都令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百夜符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>往生印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑纹袍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月冕袍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百转袍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冥骨长袍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皂缨枪</t>
-  </si>
-  <si>
-    <t>一丈绫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千祖爪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唤风铃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定风罡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晃金绳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊脂玉净瓶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火芭蕉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七星剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫金葫芦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻思瞳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升星装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干粮扩展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魂灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升星材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还魂幡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复活道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>良耕券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小麦产量增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粗铁矿锄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻钢矿锄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精致矿锄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红幡矿锄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锻火矿锄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矿锄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回程卷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵纹布卷轴</t>
-  </si>
-  <si>
-    <t>藏风棉卷轴</t>
-  </si>
-  <si>
-    <t>硕石卷轴</t>
-  </si>
-  <si>
-    <t>打磨杵卷轴</t>
-  </si>
-  <si>
-    <t>青麟布卷轴</t>
-  </si>
-  <si>
-    <t>璃焱骨卷轴</t>
-  </si>
-  <si>
-    <t>子午铜卷轴</t>
-  </si>
-  <si>
-    <t>摄心玉卷轴</t>
-  </si>
-  <si>
-    <t>油丝布卷轴</t>
-  </si>
-  <si>
-    <t>百纳布卷轴</t>
-  </si>
-  <si>
-    <t>退尘丝卷轴</t>
-  </si>
-  <si>
-    <t>省身木卷轴</t>
-  </si>
-  <si>
-    <t>浣火藤卷轴</t>
-  </si>
-  <si>
-    <t>褐铁卷轴</t>
-  </si>
-  <si>
-    <t>镇国锦帛卷轴</t>
-  </si>
-  <si>
-    <t>火云木卷轴</t>
-  </si>
-  <si>
-    <t>云锦卷轴</t>
-  </si>
-  <si>
-    <t>佛尘卷轴</t>
-  </si>
-  <si>
-    <t>梵文布卷轴</t>
-  </si>
-  <si>
-    <t>盛龙钢卷轴</t>
-  </si>
-  <si>
-    <t>玲珑丝卷轴</t>
-  </si>
-  <si>
-    <t>风钢卷轴</t>
-  </si>
-  <si>
-    <t>赤火狐皮卷轴</t>
-  </si>
-  <si>
-    <t>幽冥布卷轴</t>
-  </si>
-  <si>
-    <t>樊隍革卷轴</t>
-  </si>
-  <si>
-    <t>刻魂石卷轴</t>
-  </si>
-  <si>
-    <t>腾龙木卷轴</t>
-  </si>
-  <si>
-    <t>赤铜卷轴</t>
-  </si>
-  <si>
-    <t>火云石卷轴</t>
-  </si>
-  <si>
-    <t>硬甲皮卷轴</t>
-  </si>
-  <si>
-    <t>炭火炉卷轴</t>
-  </si>
-  <si>
-    <t>绣火扇卷轴</t>
-  </si>
-  <si>
-    <t>省身禅卷轴</t>
-  </si>
-  <si>
-    <t>度人经卷轴</t>
-  </si>
-  <si>
-    <t>渡魔剜卷轴</t>
-  </si>
-  <si>
-    <t>菩提子卷轴</t>
-  </si>
-  <si>
-    <t>比丘袈裟卷轴</t>
-  </si>
-  <si>
-    <t>云锦袈裟卷轴</t>
-  </si>
-  <si>
-    <t>苦陀袈裟卷轴</t>
-  </si>
-  <si>
-    <t>金缕袈裟卷轴</t>
-  </si>
-  <si>
-    <t>降妖杵卷轴</t>
-  </si>
-  <si>
-    <t>乾坤圈卷轴</t>
-  </si>
-  <si>
-    <t>捆仙绳卷轴</t>
-  </si>
-  <si>
-    <t>困龙鼎卷轴</t>
-  </si>
-  <si>
-    <t>夜纹袍卷轴</t>
-  </si>
-  <si>
-    <t>丰饶罩衫卷轴</t>
-  </si>
-  <si>
-    <t>天陨袍卷轴</t>
-  </si>
-  <si>
-    <t>羽化长袍卷轴</t>
-  </si>
-  <si>
-    <t>灭离爪卷轴</t>
-  </si>
-  <si>
-    <t>九幽幡卷轴</t>
-  </si>
-  <si>
-    <t>狮啸铃卷轴</t>
-  </si>
-  <si>
-    <t>百妖幡卷轴</t>
-  </si>
-  <si>
-    <t>兽甲卷轴</t>
-  </si>
-  <si>
-    <t>飞隍甲卷轴</t>
-  </si>
-  <si>
-    <t>阳鳞甲卷轴</t>
-  </si>
-  <si>
-    <t>遮雾甲卷轴</t>
-  </si>
-  <si>
-    <t>引魂幡卷轴</t>
-  </si>
-  <si>
-    <t>丰都令卷轴</t>
-  </si>
-  <si>
-    <t>百夜符卷轴</t>
-  </si>
-  <si>
-    <t>往生印卷轴</t>
-  </si>
-  <si>
-    <t>黑纹袍卷轴</t>
-  </si>
-  <si>
-    <t>月冕袍卷轴</t>
-  </si>
-  <si>
-    <t>百转袍卷轴</t>
-  </si>
-  <si>
-    <t>冥骨长袍卷轴</t>
-  </si>
-  <si>
-    <t>皂缨枪卷轴</t>
-  </si>
-  <si>
-    <t>一丈绫卷轴</t>
-  </si>
-  <si>
-    <t>千祖爪卷轴</t>
-  </si>
-  <si>
-    <t>唤风铃卷轴</t>
-  </si>
-  <si>
-    <t>定风罡卷轴</t>
-  </si>
-  <si>
-    <t>晃金绳卷轴</t>
-  </si>
-  <si>
-    <t>羊脂玉净瓶卷轴</t>
-  </si>
-  <si>
-    <t>火芭蕉卷轴</t>
-  </si>
-  <si>
-    <t>七星剑卷轴</t>
-  </si>
-  <si>
-    <t>紫金葫芦卷轴</t>
-  </si>
-  <si>
-    <t>幻思瞳卷轴</t>
-  </si>
-  <si>
-    <t>还魂幡卷轴</t>
-  </si>
-  <si>
-    <t>粗铁矿锄卷轴</t>
-  </si>
-  <si>
-    <t>轻钢矿锄卷轴</t>
-  </si>
-  <si>
-    <t>精致矿锄卷轴</t>
-  </si>
-  <si>
-    <t>红幡矿锄卷轴</t>
-  </si>
-  <si>
-    <t>锻火矿锄卷轴</t>
-  </si>
-  <si>
-    <t>制作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>物品类型</t>
@@ -1133,70 +435,6 @@
   </si>
   <si>
     <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，对于功能道具说明</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加的数值（在干粮道具的恢复效果上做加法）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复活道具无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加的背包大小（加法）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产效率时间缩减</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>参数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对应以上定义</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>1</t>
     </r>
     <r>
@@ -1228,35 +466,1118 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>参数1:需要开启的钥匙ID</t>
+  </si>
+  <si>
+    <t>参数2:获取的道具，书写格式，道具ID:数量|道具ID:数量……</t>
+  </si>
+  <si>
+    <t>小麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锰铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钨钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樟木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天杉木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祥龙木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛮皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻革</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重革</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绒面革</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绢布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝绸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚕丝布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秀水绫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砥石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵纹布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏风棉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硕石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打磨杵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青麟布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>璃焱骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子午铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄心玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油丝布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百纳布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退尘丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省身木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浣火藤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>褐铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇国锦帛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火云木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云锦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛尘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梵文布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛龙钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玲珑丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤火狐皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽冥布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樊隍革</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刻魂石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾龙木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤铜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火云石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月纹布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬甲皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2级矿锄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3级矿锄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4级矿锄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5级矿锄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>炭火炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绣火扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾坤圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰饶罩衫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度人经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云锦袈裟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九幽幡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞隍甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皂缨枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唤风铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火芭蕉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰都令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月冕袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省身禅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比丘袈裟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引魂幡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑纹袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灭离爪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兽甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降妖杵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜纹袍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作卷轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级矿锄</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包扩容Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包扩容Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包扩容Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包扩容Ⅳ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包扩容Ⅴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良耕券Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>良耕券Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金丰令Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金丰令Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回城卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干粮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能道具</t>
+  </si>
+  <si>
+    <t>回魂幡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富徭令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位收获时间减半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线时间翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加小麦产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加金币产量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>jjc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进门钥匙</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图宝箱钥匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石硝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>地契</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>材料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数1:需要开启的钥匙ID</t>
-  </si>
-  <si>
-    <t>参数2:获取的道具，书写格式，道具ID:数量|道具ID:数量……</t>
-  </si>
-  <si>
-    <t>参数1:1-增加干粮恢复数值
-      3-盘缠点击收益增加
-      4-背包容量扩展
-      5-替换单位生产效率
-      6-更改小麦的生产方式</t>
-  </si>
-  <si>
-    <t>小麦消耗人力:生产数量</t>
+    <t>天赋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：先发制人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对应天赋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升星独有材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破碎钉耙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红肚兜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞龙杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯芯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玲珑白骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇元鼎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>披香阁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝象塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七星穗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葫芦芯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>避火珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火象藤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>50000</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加干粮恢复数值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>功能道具参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>定义</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加点金收益</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加背包大小</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>缩减生产收获时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>回程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复活</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>7-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加小麦单位产量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>增加离线收获时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦产量+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包上限+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点金收益+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回【高老庄】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探险和战斗必不可少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复活战斗阵亡的单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料生产效率提高，每10秒收获一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复道具【参数定义恢复值】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁英雄【参数定义对应招募ID】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地契解锁耕地</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地契【参数解锁麦田id】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸:月匙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸:石硝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷轴:背包扩容Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷轴:背包扩容Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷轴:背包扩容Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷轴:背包扩容Ⅳ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷轴:背包扩容Ⅴ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸:乾坤圈</t>
+  </si>
+  <si>
+    <t>图纸:丰饶罩衫</t>
+  </si>
+  <si>
+    <t>图纸:度人经</t>
+  </si>
+  <si>
+    <t>图纸:云锦袈裟</t>
+  </si>
+  <si>
+    <t>图纸:九幽幡</t>
+  </si>
+  <si>
+    <t>图纸:飞隍甲</t>
+  </si>
+  <si>
+    <t>图纸:皂缨枪</t>
+  </si>
+  <si>
+    <t>图纸:唤风铃</t>
+  </si>
+  <si>
+    <t>图纸:火芭蕉</t>
+  </si>
+  <si>
+    <t>图纸:丰都令</t>
+  </si>
+  <si>
+    <t>图纸:月冕袍</t>
+  </si>
+  <si>
+    <t>图纸:省身禅</t>
+  </si>
+  <si>
+    <t>图纸:比丘袈裟</t>
+  </si>
+  <si>
+    <t>图纸:引魂幡</t>
+  </si>
+  <si>
+    <t>图纸:黑纹袍</t>
+  </si>
+  <si>
+    <t>图纸:灭离爪</t>
+  </si>
+  <si>
+    <t>图纸:兽甲</t>
+  </si>
+  <si>
+    <t>图纸:降妖杵</t>
+  </si>
+  <si>
+    <t>图纸:夜纹袍</t>
+  </si>
+  <si>
+    <t>图纸:灵纹布</t>
+  </si>
+  <si>
+    <t>图纸:藏风棉</t>
+  </si>
+  <si>
+    <t>图纸:硕石</t>
+  </si>
+  <si>
+    <t>图纸:打磨杵</t>
+  </si>
+  <si>
+    <t>图纸:青麟布</t>
+  </si>
+  <si>
+    <t>图纸:璃焱骨</t>
+  </si>
+  <si>
+    <t>图纸:子午铜</t>
+  </si>
+  <si>
+    <t>图纸:摄心玉</t>
+  </si>
+  <si>
+    <t>图纸:油丝布</t>
+  </si>
+  <si>
+    <t>图纸:百纳布</t>
+  </si>
+  <si>
+    <t>图纸:退尘丝</t>
+  </si>
+  <si>
+    <t>图纸:省身木</t>
+  </si>
+  <si>
+    <t>图纸:浣火藤</t>
+  </si>
+  <si>
+    <t>图纸:褐铁</t>
+  </si>
+  <si>
+    <t>图纸:镇国锦帛</t>
+  </si>
+  <si>
+    <t>图纸:火云木</t>
+  </si>
+  <si>
+    <t>图纸:云锦</t>
+  </si>
+  <si>
+    <t>图纸:佛尘</t>
+  </si>
+  <si>
+    <t>图纸:梵文布</t>
+  </si>
+  <si>
+    <t>图纸:盛龙钢</t>
+  </si>
+  <si>
+    <t>图纸:玲珑丝</t>
+  </si>
+  <si>
+    <t>图纸:风钢</t>
+  </si>
+  <si>
+    <t>图纸:赤火狐皮</t>
+  </si>
+  <si>
+    <t>图纸:幽冥布</t>
+  </si>
+  <si>
+    <t>图纸:樊隍革</t>
+  </si>
+  <si>
+    <t>图纸:刻魂石</t>
+  </si>
+  <si>
+    <t>图纸:腾龙木</t>
+  </si>
+  <si>
+    <t>图纸:赤铜</t>
+  </si>
+  <si>
+    <t>图纸:火云石</t>
+  </si>
+  <si>
+    <t>图纸:硬甲皮</t>
+  </si>
+  <si>
+    <t>图纸:月纹布</t>
+  </si>
+  <si>
+    <t>打造:炭火炉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打造:绣火扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图纸:1级矿锄</t>
+  </si>
+  <si>
+    <t>图纸:2级矿锄</t>
+  </si>
+  <si>
+    <t>图纸:3级矿锄</t>
+  </si>
+  <si>
+    <t>图纸:4级矿锄</t>
+  </si>
+  <si>
+    <t>图纸:5级矿锄</t>
+  </si>
+  <si>
+    <t>【妖】:九尾狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包上限+20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰徭鼓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包上限+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励:背包扩充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天赋：眼观六路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1335,54 +1656,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B050"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1396,24 +1711,43 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1441,31 +1775,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1807,27 +2137,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M198"/>
+  <dimension ref="A1:M205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C181" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G199" sqref="G199"/>
+      <selection pane="bottomRight" activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="10" max="13" width="9" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1957,11 +2288,11 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>36</v>
+      <c r="C4" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
@@ -1970,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1980,11 +2311,11 @@
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>37</v>
+      <c r="C5" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E5" s="2">
         <v>2</v>
@@ -1993,21 +2324,21 @@
         <v>1</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>38</v>
+      <c r="C6" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2">
         <v>2</v>
@@ -2016,21 +2347,21 @@
         <v>1</v>
       </c>
       <c r="G6" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>39</v>
+      <c r="C7" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -2039,21 +2370,21 @@
         <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="9" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -2062,24 +2393,24 @@
         <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>233</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>40</v>
+      <c r="C9" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2">
         <v>2</v>
@@ -2088,24 +2419,24 @@
         <v>1</v>
       </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>234</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>41</v>
+      <c r="C10" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -2114,24 +2445,24 @@
         <v>1</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>235</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>42</v>
+      <c r="C11" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
@@ -2140,24 +2471,24 @@
         <v>1</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>43</v>
+      <c r="C12" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E12" s="2">
         <v>2</v>
@@ -2166,24 +2497,24 @@
         <v>1</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>237</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>44</v>
+      <c r="C13" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
@@ -2192,24 +2523,24 @@
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>238</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>45</v>
+      <c r="C14" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
@@ -2218,24 +2549,24 @@
         <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>239</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>46</v>
+      <c r="C15" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
@@ -2244,24 +2575,24 @@
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>47</v>
+      <c r="C16" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E16" s="2">
         <v>2</v>
@@ -2270,24 +2601,24 @@
         <v>1</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>48</v>
+      <c r="C17" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E17" s="2">
         <v>2</v>
@@ -2296,24 +2627,24 @@
         <v>1</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>242</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>49</v>
+      <c r="C18" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
@@ -2322,24 +2653,24 @@
         <v>1</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>243</v>
+        <v>47</v>
       </c>
       <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>50</v>
+      <c r="C19" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E19" s="2">
         <v>2</v>
@@ -2348,24 +2679,24 @@
         <v>1</v>
       </c>
       <c r="G19" s="2">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>244</v>
+        <v>48</v>
       </c>
       <c r="B20" s="2">
         <v>17</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>51</v>
+      <c r="C20" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E20" s="2">
         <v>2</v>
@@ -2374,50 +2705,50 @@
         <v>1</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>245</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2">
         <v>18</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>6</v>
+      </c>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>53</v>
+      <c r="C22" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E22" s="2">
         <v>2</v>
@@ -2426,21 +2757,21 @@
         <v>1</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>20</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>54</v>
+      <c r="C23" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -2449,24 +2780,24 @@
         <v>1</v>
       </c>
       <c r="G23" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>246</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2">
         <v>21</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>55</v>
+      <c r="C24" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E24" s="2">
         <v>2</v>
@@ -2475,24 +2806,24 @@
         <v>1</v>
       </c>
       <c r="G24" s="2">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
-        <v>253</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B25" s="2">
         <v>22</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>56</v>
+      <c r="C25" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E25" s="2">
         <v>2</v>
@@ -2501,24 +2832,24 @@
         <v>1</v>
       </c>
       <c r="G25" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>257</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2">
         <v>23</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>57</v>
+      <c r="C26" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E26" s="2">
         <v>2</v>
@@ -2527,24 +2858,24 @@
         <v>1</v>
       </c>
       <c r="G26" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="62.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
-        <v>258</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="B27" s="2">
         <v>24</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>58</v>
+      <c r="C27" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E27" s="2">
         <v>2</v>
@@ -2553,21 +2884,21 @@
         <v>1</v>
       </c>
       <c r="G27" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>25</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E28" s="2">
         <v>2</v>
@@ -2576,24 +2907,22 @@
         <v>1</v>
       </c>
       <c r="G28" s="2">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
-        <v>247</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
       <c r="B29" s="2">
         <v>26</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>59</v>
+      <c r="C29" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E29" s="2">
         <v>2</v>
@@ -2602,50 +2931,45 @@
         <v>1</v>
       </c>
       <c r="G29" s="2">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
-        <v>259</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
       <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>34</v>
+      <c r="C30" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="10">
-        <v>9</v>
+        <v>107</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
       </c>
       <c r="F30" s="2">
         <v>1</v>
       </c>
       <c r="G30" s="2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>28</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>60</v>
+      <c r="C31" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
@@ -2654,24 +2978,24 @@
         <v>1</v>
       </c>
       <c r="G31" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="22" t="s">
-        <v>252</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>61</v>
+      <c r="C32" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
@@ -2680,24 +3004,24 @@
         <v>1</v>
       </c>
       <c r="G32" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
-        <v>248</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="B33" s="2">
         <v>30</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>62</v>
+      <c r="C33" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E33" s="2">
         <v>2</v>
@@ -2706,24 +3030,24 @@
         <v>1</v>
       </c>
       <c r="G33" s="2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>249</v>
+      <c r="A34" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>63</v>
+      <c r="C34" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E34" s="2">
         <v>2</v>
@@ -2732,24 +3056,24 @@
         <v>1</v>
       </c>
       <c r="G34" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="H34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>250</v>
+      <c r="A35" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="B35" s="2">
         <v>32</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>64</v>
+      <c r="C35" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E35" s="2">
         <v>2</v>
@@ -2758,24 +3082,24 @@
         <v>1</v>
       </c>
       <c r="G35" s="2">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="H35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>251</v>
+      <c r="A36" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="B36" s="2">
         <v>33</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>65</v>
+      <c r="C36" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E36" s="2">
         <v>2</v>
@@ -2784,24 +3108,24 @@
         <v>1</v>
       </c>
       <c r="G36" s="2">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="H36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>260</v>
+      <c r="A37" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="B37" s="2">
         <v>34</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>66</v>
+      <c r="C37" s="11" t="s">
+        <v>83</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E37" s="2">
         <v>2</v>
@@ -2810,21 +3134,24 @@
         <v>1</v>
       </c>
       <c r="G37" s="2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="H37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="B38" s="2">
         <v>35</v>
       </c>
-      <c r="C38" s="13" t="s">
-        <v>67</v>
+      <c r="C38" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E38" s="2">
         <v>2</v>
@@ -2833,21 +3160,24 @@
         <v>1</v>
       </c>
       <c r="G38" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="H38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>194</v>
+      </c>
       <c r="B39" s="2">
         <v>36</v>
       </c>
-      <c r="C39" s="13" t="s">
-        <v>68</v>
+      <c r="C39" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E39" s="2">
         <v>2</v>
@@ -2856,21 +3186,24 @@
         <v>1</v>
       </c>
       <c r="G39" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="H39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="B40" s="2">
         <v>37</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>69</v>
+      <c r="C40" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E40" s="2">
         <v>2</v>
@@ -2879,22 +3212,24 @@
         <v>1</v>
       </c>
       <c r="G40" s="2">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
+      <c r="A41" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="B41" s="2">
         <v>38</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>70</v>
+      <c r="C41" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E41" s="2">
         <v>2</v>
@@ -2903,21 +3238,21 @@
         <v>1</v>
       </c>
       <c r="G41" s="2">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="H41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>39</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>71</v>
+      <c r="C42" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E42" s="2">
         <v>2</v>
@@ -2926,21 +3261,21 @@
         <v>1</v>
       </c>
       <c r="G42" s="2">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="H42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>40</v>
       </c>
-      <c r="C43" s="13" t="s">
-        <v>72</v>
+      <c r="C43" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E43" s="2">
         <v>2</v>
@@ -2949,21 +3284,21 @@
         <v>1</v>
       </c>
       <c r="G43" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>41</v>
       </c>
-      <c r="C44" s="13" t="s">
-        <v>73</v>
+      <c r="C44" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E44" s="2">
         <v>2</v>
@@ -2972,21 +3307,21 @@
         <v>1</v>
       </c>
       <c r="G44" s="2">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>42</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>74</v>
+      <c r="C45" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E45" s="2">
         <v>2</v>
@@ -2995,21 +3330,21 @@
         <v>1</v>
       </c>
       <c r="G45" s="2">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="H45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>43</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>75</v>
+      <c r="C46" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E46" s="2">
         <v>2</v>
@@ -3018,21 +3353,21 @@
         <v>1</v>
       </c>
       <c r="G46" s="2">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="H46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>44</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>76</v>
+      <c r="C47" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E47" s="2">
         <v>2</v>
@@ -3041,21 +3376,21 @@
         <v>1</v>
       </c>
       <c r="G47" s="2">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>45</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>77</v>
+      <c r="C48" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E48" s="2">
         <v>2</v>
@@ -3064,21 +3399,21 @@
         <v>1</v>
       </c>
       <c r="G48" s="2">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="H48" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>46</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>78</v>
+      <c r="C49" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E49" s="2">
         <v>2</v>
@@ -3087,21 +3422,21 @@
         <v>1</v>
       </c>
       <c r="G49" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="H49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>47</v>
       </c>
-      <c r="C50" s="13" t="s">
-        <v>79</v>
+      <c r="C50" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E50" s="2">
         <v>2</v>
@@ -3110,21 +3445,21 @@
         <v>1</v>
       </c>
       <c r="G50" s="2">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="H50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>48</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>80</v>
+      <c r="C51" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E51" s="2">
         <v>2</v>
@@ -3133,21 +3468,21 @@
         <v>1</v>
       </c>
       <c r="G51" s="2">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="H51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
         <v>49</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>81</v>
+      <c r="C52" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2">
         <v>2</v>
@@ -3156,21 +3491,21 @@
         <v>1</v>
       </c>
       <c r="G52" s="2">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="H52" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <v>50</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>82</v>
+      <c r="C53" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E53" s="2">
         <v>2</v>
@@ -3179,21 +3514,21 @@
         <v>1</v>
       </c>
       <c r="G53" s="2">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="H53" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <v>51</v>
       </c>
-      <c r="C54" s="13" t="s">
-        <v>83</v>
+      <c r="C54" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E54" s="2">
         <v>2</v>
@@ -3202,21 +3537,21 @@
         <v>1</v>
       </c>
       <c r="G54" s="2">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="H54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <v>52</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>84</v>
+      <c r="C55" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E55" s="2">
         <v>2</v>
@@ -3225,21 +3560,21 @@
         <v>1</v>
       </c>
       <c r="G55" s="2">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="H55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <v>53</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>85</v>
+      <c r="C56" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E56" s="2">
         <v>2</v>
@@ -3248,21 +3583,21 @@
         <v>1</v>
       </c>
       <c r="G56" s="2">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
         <v>54</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>80</v>
+      <c r="C57" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E57" s="2">
         <v>2</v>
@@ -3271,21 +3606,21 @@
         <v>1</v>
       </c>
       <c r="G57" s="2">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="H57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
         <v>55</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>86</v>
+      <c r="C58" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E58" s="2">
         <v>2</v>
@@ -3294,21 +3629,21 @@
         <v>1</v>
       </c>
       <c r="G58" s="2">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="H58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <v>56</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>87</v>
+      <c r="C59" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E59" s="2">
         <v>2</v>
@@ -3317,21 +3652,21 @@
         <v>1</v>
       </c>
       <c r="G59" s="2">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H59" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>57</v>
       </c>
-      <c r="C60" s="13" t="s">
-        <v>88</v>
+      <c r="C60" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E60" s="2">
         <v>2</v>
@@ -3340,21 +3675,21 @@
         <v>1</v>
       </c>
       <c r="G60" s="2">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="H60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
         <v>58</v>
       </c>
-      <c r="C61" s="13" t="s">
-        <v>89</v>
+      <c r="C61" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2">
         <v>2</v>
@@ -3363,30 +3698,30 @@
         <v>1</v>
       </c>
       <c r="G61" s="2">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="H61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>59</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>90</v>
+        <v>233</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E62" s="2">
-        <v>12</v>
+        <v>108</v>
+      </c>
+      <c r="E62" s="21">
+        <v>3</v>
       </c>
       <c r="F62" s="2">
         <v>1</v>
       </c>
       <c r="G62" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -3394,853 +3729,952 @@
       <c r="I62" s="2">
         <v>1</v>
       </c>
-      <c r="J62" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
         <v>60</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>91</v>
+        <v>234</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E63" s="2">
-        <v>12</v>
+        <v>108</v>
+      </c>
+      <c r="E63" s="21">
+        <v>3</v>
       </c>
       <c r="F63" s="2">
         <v>1</v>
       </c>
       <c r="G63" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
       </c>
       <c r="I63" s="2">
-        <v>1</v>
-      </c>
-      <c r="J63" s="2">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
         <v>61</v>
       </c>
-      <c r="C64" s="12" t="s">
-        <v>92</v>
+      <c r="C64" s="16" t="s">
+        <v>235</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E64" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E64" s="21">
+        <v>3</v>
       </c>
       <c r="F64" s="2">
         <v>1</v>
       </c>
       <c r="G64" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I64" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <v>62</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>93</v>
+      <c r="C65" s="16" t="s">
+        <v>236</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E65" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E65" s="21">
+        <v>3</v>
       </c>
       <c r="F65" s="2">
         <v>1</v>
       </c>
       <c r="G65" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I65" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
         <v>63</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>94</v>
+      <c r="C66" s="16" t="s">
+        <v>237</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E66" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E66" s="21">
+        <v>3</v>
       </c>
       <c r="F66" s="2">
         <v>1</v>
       </c>
       <c r="G66" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I66" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B67" s="2">
         <v>64</v>
       </c>
-      <c r="C67" s="12" t="s">
-        <v>95</v>
+      <c r="C67" s="16" t="s">
+        <v>238</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E67" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E67" s="21">
+        <v>3</v>
       </c>
       <c r="F67" s="2">
         <v>1</v>
       </c>
       <c r="G67" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I67" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B68" s="2">
         <v>65</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>96</v>
+      <c r="C68" s="16" t="s">
+        <v>239</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E68" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E68" s="21">
+        <v>3</v>
       </c>
       <c r="F68" s="2">
         <v>1</v>
       </c>
       <c r="G68" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I68" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B69" s="2">
         <v>66</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>97</v>
+      <c r="C69" s="16" t="s">
+        <v>240</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E69" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E69" s="21">
+        <v>3</v>
       </c>
       <c r="F69" s="2">
         <v>1</v>
       </c>
       <c r="G69" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I69" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B70" s="2">
         <v>67</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>98</v>
+      <c r="C70" s="16" t="s">
+        <v>241</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E70" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E70" s="21">
+        <v>3</v>
       </c>
       <c r="F70" s="2">
         <v>1</v>
       </c>
       <c r="G70" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I70" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B71" s="2">
         <v>68</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>99</v>
+      <c r="C71" s="16" t="s">
+        <v>242</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E71" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E71" s="21">
+        <v>3</v>
       </c>
       <c r="F71" s="2">
         <v>1</v>
       </c>
       <c r="G71" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B72" s="2">
         <v>69</v>
       </c>
-      <c r="C72" s="17" t="s">
-        <v>100</v>
+      <c r="C72" s="16" t="s">
+        <v>243</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E72" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E72" s="21">
+        <v>3</v>
       </c>
       <c r="F72" s="2">
         <v>1</v>
       </c>
       <c r="G72" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H72" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I72" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B73" s="2">
         <v>70</v>
       </c>
-      <c r="C73" s="12" t="s">
-        <v>101</v>
+      <c r="C73" s="16" t="s">
+        <v>244</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E73" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E73" s="21">
+        <v>3</v>
       </c>
       <c r="F73" s="2">
         <v>1</v>
       </c>
       <c r="G73" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I73" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B74" s="2">
         <v>71</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>102</v>
+      <c r="C74" s="16" t="s">
+        <v>245</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E74" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E74" s="21">
+        <v>3</v>
       </c>
       <c r="F74" s="2">
         <v>1</v>
       </c>
       <c r="G74" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I74" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B75" s="2">
         <v>72</v>
       </c>
-      <c r="C75" s="12" t="s">
-        <v>103</v>
+      <c r="C75" s="16" t="s">
+        <v>246</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E75" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E75" s="21">
+        <v>3</v>
       </c>
       <c r="F75" s="2">
         <v>1</v>
       </c>
       <c r="G75" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H75" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I75" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B76" s="2">
         <v>73</v>
       </c>
-      <c r="C76" s="12" t="s">
-        <v>104</v>
+      <c r="C76" s="16" t="s">
+        <v>247</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E76" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E76" s="21">
+        <v>3</v>
       </c>
       <c r="F76" s="2">
         <v>1</v>
       </c>
       <c r="G76" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H76" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I76" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B77" s="2">
         <v>74</v>
       </c>
-      <c r="C77" s="12" t="s">
-        <v>105</v>
+      <c r="C77" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E77" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E77" s="21">
+        <v>3</v>
       </c>
       <c r="F77" s="2">
         <v>1</v>
       </c>
       <c r="G77" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H77" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I77" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B78" s="2">
         <v>75</v>
       </c>
-      <c r="C78" s="12" t="s">
-        <v>106</v>
+      <c r="C78" s="16" t="s">
+        <v>249</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E78" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E78" s="21">
+        <v>3</v>
       </c>
       <c r="F78" s="2">
         <v>1</v>
       </c>
       <c r="G78" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H78" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I78" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B79" s="2">
         <v>76</v>
       </c>
-      <c r="C79" s="12" t="s">
-        <v>107</v>
+      <c r="C79" s="16" t="s">
+        <v>250</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E79" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E79" s="21">
+        <v>3</v>
       </c>
       <c r="F79" s="2">
         <v>1</v>
       </c>
       <c r="G79" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H79" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I79" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B80" s="2">
         <v>77</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E80" s="2">
-        <v>2</v>
+      <c r="E80" s="21">
+        <v>3</v>
       </c>
       <c r="F80" s="2">
         <v>1</v>
       </c>
       <c r="G80" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H80" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I80" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B81" s="2">
         <v>78</v>
       </c>
-      <c r="C81" s="12" t="s">
-        <v>109</v>
+      <c r="C81" s="16" t="s">
+        <v>252</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E81" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E81" s="21">
+        <v>3</v>
       </c>
       <c r="F81" s="2">
         <v>1</v>
       </c>
       <c r="G81" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H81" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I81" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B82" s="2">
         <v>79</v>
       </c>
-      <c r="C82" s="12" t="s">
-        <v>110</v>
+      <c r="C82" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E82" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E82" s="21">
+        <v>3</v>
       </c>
       <c r="F82" s="2">
         <v>1</v>
       </c>
       <c r="G82" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H82" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I82" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B83" s="2">
         <v>80</v>
       </c>
-      <c r="C83" s="12" t="s">
-        <v>111</v>
+      <c r="C83" s="16" t="s">
+        <v>254</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E83" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E83" s="21">
+        <v>3</v>
       </c>
       <c r="F83" s="2">
         <v>1</v>
       </c>
       <c r="G83" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H83" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I83" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B84" s="2">
         <v>81</v>
       </c>
-      <c r="C84" s="12" t="s">
-        <v>112</v>
+      <c r="C84" s="16" t="s">
+        <v>255</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E84" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E84" s="21">
+        <v>3</v>
       </c>
       <c r="F84" s="2">
         <v>1</v>
       </c>
       <c r="G84" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H84" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I84" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B85" s="2">
         <v>82</v>
       </c>
-      <c r="C85" s="12" t="s">
-        <v>113</v>
+      <c r="C85" s="16" t="s">
+        <v>256</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E85" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E85" s="21">
+        <v>3</v>
       </c>
       <c r="F85" s="2">
         <v>1</v>
       </c>
       <c r="G85" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H85" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I85" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B86" s="2">
         <v>83</v>
       </c>
-      <c r="C86" s="12" t="s">
-        <v>114</v>
+      <c r="C86" s="16" t="s">
+        <v>257</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E86" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E86" s="21">
+        <v>3</v>
       </c>
       <c r="F86" s="2">
         <v>1</v>
       </c>
       <c r="G86" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H86" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I86" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B87" s="2">
         <v>84</v>
       </c>
-      <c r="C87" s="12" t="s">
-        <v>115</v>
+      <c r="C87" s="16" t="s">
+        <v>258</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E87" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E87" s="21">
+        <v>3</v>
       </c>
       <c r="F87" s="2">
         <v>1</v>
       </c>
       <c r="G87" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H87" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I87" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B88" s="2">
         <v>85</v>
       </c>
-      <c r="C88" s="12" t="s">
-        <v>116</v>
+      <c r="C88" s="16" t="s">
+        <v>253</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E88" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E88" s="21">
+        <v>3</v>
       </c>
       <c r="F88" s="2">
         <v>1</v>
       </c>
       <c r="G88" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H88" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I88" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B89" s="2">
         <v>86</v>
       </c>
-      <c r="C89" s="12" t="s">
-        <v>117</v>
+      <c r="C89" s="16" t="s">
+        <v>259</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E89" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E89" s="21">
+        <v>3</v>
       </c>
       <c r="F89" s="2">
         <v>1</v>
       </c>
       <c r="G89" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H89" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I89" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B90" s="2">
         <v>87</v>
       </c>
-      <c r="C90" s="12" t="s">
-        <v>118</v>
+      <c r="C90" s="16" t="s">
+        <v>260</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E90" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E90" s="21">
+        <v>3</v>
       </c>
       <c r="F90" s="2">
         <v>1</v>
       </c>
       <c r="G90" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H90" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I90" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B91" s="2">
         <v>88</v>
       </c>
-      <c r="C91" s="12" t="s">
-        <v>119</v>
+      <c r="C91" s="16" t="s">
+        <v>261</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E91" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E91" s="21">
+        <v>3</v>
       </c>
       <c r="F91" s="2">
         <v>1</v>
       </c>
       <c r="G91" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I91" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B92" s="2">
         <v>89</v>
       </c>
-      <c r="C92" s="12" t="s">
-        <v>120</v>
+      <c r="C92" s="16" t="s">
+        <v>262</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E92" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E92" s="21">
+        <v>3</v>
       </c>
       <c r="F92" s="2">
         <v>1</v>
       </c>
       <c r="G92" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H92" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I92" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B93" s="2">
         <v>90</v>
       </c>
-      <c r="C93" s="12" t="s">
-        <v>121</v>
+      <c r="C93" s="16" t="s">
+        <v>263</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E93" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E93" s="21">
+        <v>3</v>
       </c>
       <c r="F93" s="2">
         <v>1</v>
       </c>
       <c r="G93" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H93" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I93" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="2">
         <v>91</v>
       </c>
-      <c r="C94" s="12" t="s">
-        <v>122</v>
+      <c r="C94" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E94" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E94" s="21">
+        <v>3</v>
       </c>
       <c r="F94" s="2">
         <v>1</v>
       </c>
       <c r="G94" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H94" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I94" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
         <v>92</v>
       </c>
-      <c r="C95" s="12" t="s">
-        <v>123</v>
+      <c r="C95" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E95" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E95" s="21">
+        <v>3</v>
       </c>
       <c r="F95" s="2">
         <v>1</v>
       </c>
       <c r="G95" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H95" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I95" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
         <v>93</v>
       </c>
-      <c r="C96" s="18" t="s">
-        <v>124</v>
+      <c r="C96" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E96" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E96" s="21">
+        <v>3</v>
       </c>
       <c r="F96" s="2">
         <v>1</v>
       </c>
       <c r="G96" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H96" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I96" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="2">
         <v>94</v>
       </c>
-      <c r="C97" s="12" t="s">
-        <v>125</v>
+      <c r="C97" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E97" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E97" s="21">
+        <v>3</v>
       </c>
       <c r="F97" s="2">
         <v>1</v>
       </c>
       <c r="G97" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H97" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I97" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="2">
         <v>95</v>
       </c>
-      <c r="C98" s="12" t="s">
-        <v>126</v>
+      <c r="C98" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E98" s="2">
-        <v>2</v>
+        <v>108</v>
+      </c>
+      <c r="E98" s="21">
+        <v>3</v>
       </c>
       <c r="F98" s="2">
         <v>1</v>
       </c>
       <c r="G98" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H98" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I98" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
         <v>96</v>
       </c>
-      <c r="C99" s="12" t="s">
-        <v>127</v>
+      <c r="C99" s="15" t="s">
+        <v>137</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="E99" s="2">
         <v>2</v>
@@ -4249,21 +4683,21 @@
         <v>1</v>
       </c>
       <c r="G99" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H99" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="2">
         <v>97</v>
       </c>
-      <c r="C100" s="12" t="s">
-        <v>128</v>
+      <c r="C100" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="E100" s="2">
         <v>2</v>
@@ -4272,21 +4706,21 @@
         <v>1</v>
       </c>
       <c r="G100" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H100" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="2">
         <v>98</v>
       </c>
-      <c r="C101" s="12" t="s">
-        <v>129</v>
+      <c r="C101" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="E101" s="2">
         <v>2</v>
@@ -4295,21 +4729,21 @@
         <v>1</v>
       </c>
       <c r="G101" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H101" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="2">
         <v>99</v>
       </c>
-      <c r="C102" s="12" t="s">
-        <v>130</v>
+      <c r="C102" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="E102" s="2">
         <v>2</v>
@@ -4318,21 +4752,21 @@
         <v>1</v>
       </c>
       <c r="G102" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H102" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="2">
         <v>100</v>
       </c>
-      <c r="C103" s="12" t="s">
-        <v>131</v>
+      <c r="C103" s="15" t="s">
+        <v>113</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="E103" s="2">
         <v>2</v>
@@ -4341,2199 +4775,2221 @@
         <v>1</v>
       </c>
       <c r="G103" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H103" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="2">
         <v>101</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E104" s="2">
-        <v>2</v>
+        <v>136</v>
+      </c>
+      <c r="E104" s="21">
+        <v>3</v>
       </c>
       <c r="F104" s="2">
         <v>1</v>
       </c>
       <c r="G104" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H104" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I104" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" s="2">
         <v>102</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>133</v>
+        <v>265</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E105" s="2">
-        <v>2</v>
+        <v>136</v>
+      </c>
+      <c r="E105" s="21">
+        <v>3</v>
       </c>
       <c r="F105" s="2">
         <v>1</v>
       </c>
       <c r="G105" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H105" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="I105" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" s="2">
         <v>103</v>
       </c>
-      <c r="C106" s="12" t="s">
-        <v>134</v>
+      <c r="C106" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="E106" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F106" s="2">
         <v>1</v>
       </c>
       <c r="G106" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H106" s="2">
         <v>0</v>
+      </c>
+      <c r="I106" s="2">
+        <v>1</v>
+      </c>
+      <c r="J106" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" s="2">
         <v>104</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>138</v>
+      <c r="C107" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E107" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F107" s="2">
         <v>1</v>
       </c>
       <c r="G107" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H107" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I107" s="2">
+        <v>1</v>
+      </c>
+      <c r="J107" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B108" s="2">
         <v>105</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>140</v>
+      <c r="C108" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E108" s="2">
-        <v>13</v>
+        <v>135</v>
+      </c>
+      <c r="E108" s="21">
+        <v>3</v>
       </c>
       <c r="F108" s="2">
         <v>1</v>
       </c>
       <c r="G108" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H108" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I108" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B109" s="2">
         <v>106</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>142</v>
+      <c r="C109" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E109" s="2">
-        <v>12</v>
+        <v>135</v>
+      </c>
+      <c r="E109" s="21">
+        <v>3</v>
       </c>
       <c r="F109" s="2">
         <v>1</v>
       </c>
       <c r="G109" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H109" s="2">
         <v>0</v>
       </c>
       <c r="I109" s="2">
-        <v>6</v>
-      </c>
-      <c r="J109" s="23">
-        <v>8.5416666666666655E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B110" s="2">
         <v>107</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>144</v>
+      <c r="C110" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E110" s="2">
-        <v>2</v>
+        <v>135</v>
+      </c>
+      <c r="E110" s="21">
+        <v>3</v>
       </c>
       <c r="F110" s="2">
         <v>1</v>
       </c>
       <c r="G110" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H110" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I110" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B111" s="2">
         <v>108</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>145</v>
+      <c r="C111" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E111" s="2">
-        <v>2</v>
+        <v>135</v>
+      </c>
+      <c r="E111" s="21">
+        <v>3</v>
       </c>
       <c r="F111" s="2">
         <v>1</v>
       </c>
       <c r="G111" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H111" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I111" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B112" s="2">
         <v>109</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>146</v>
+      <c r="C112" s="13" t="s">
+        <v>218</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E112" s="2">
-        <v>2</v>
+        <v>135</v>
+      </c>
+      <c r="E112" s="21">
+        <v>3</v>
       </c>
       <c r="F112" s="2">
         <v>1</v>
       </c>
       <c r="G112" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H112" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I112" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B113" s="2">
         <v>110</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>147</v>
+      <c r="C113" s="13" t="s">
+        <v>219</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E113" s="2">
-        <v>2</v>
+        <v>135</v>
+      </c>
+      <c r="E113" s="21">
+        <v>3</v>
       </c>
       <c r="F113" s="2">
         <v>1</v>
       </c>
       <c r="G113" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H113" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I113" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B114" s="2">
         <v>111</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>148</v>
+      <c r="C114" s="13" t="s">
+        <v>220</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E114" s="2">
-        <v>2</v>
+        <v>135</v>
+      </c>
+      <c r="E114" s="21">
+        <v>3</v>
       </c>
       <c r="F114" s="2">
         <v>1</v>
       </c>
       <c r="G114" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H114" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I114" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B115" s="2">
         <v>112</v>
       </c>
-      <c r="C115" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E115" s="2">
-        <v>4</v>
+      <c r="C115" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E115" s="21">
+        <v>3</v>
       </c>
       <c r="F115" s="2">
         <v>1</v>
       </c>
       <c r="G115" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H115" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I115" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B116" s="2">
         <v>113</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>151</v>
+      <c r="C116" s="13" t="s">
+        <v>222</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E116" s="2">
+        <v>135</v>
+      </c>
+      <c r="E116" s="21">
         <v>3</v>
       </c>
       <c r="F116" s="2">
         <v>1</v>
       </c>
       <c r="G116" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H116" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I116" s="2">
+        <v>48</v>
+      </c>
+      <c r="J116" s="7"/>
+    </row>
+    <row r="117" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B117" s="2">
         <v>114</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>152</v>
+      <c r="C117" s="13" t="s">
+        <v>223</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E117" s="2">
+        <v>135</v>
+      </c>
+      <c r="E117" s="21">
         <v>3</v>
       </c>
       <c r="F117" s="2">
         <v>1</v>
       </c>
       <c r="G117" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H117" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I117" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B118" s="2">
         <v>115</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>153</v>
+      <c r="C118" s="13" t="s">
+        <v>224</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E118" s="2">
+        <v>135</v>
+      </c>
+      <c r="E118" s="21">
         <v>3</v>
       </c>
       <c r="F118" s="2">
         <v>1</v>
       </c>
       <c r="G118" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H118" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I118" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B119" s="2">
         <v>116</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>154</v>
+      <c r="C119" s="13" t="s">
+        <v>225</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E119" s="2">
+        <v>135</v>
+      </c>
+      <c r="E119" s="21">
         <v>3</v>
       </c>
       <c r="F119" s="2">
         <v>1</v>
       </c>
       <c r="G119" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H119" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I119" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B120" s="2">
         <v>117</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>155</v>
+      <c r="C120" s="13" t="s">
+        <v>226</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E120" s="2">
+        <v>135</v>
+      </c>
+      <c r="E120" s="21">
         <v>3</v>
       </c>
       <c r="F120" s="2">
         <v>1</v>
       </c>
       <c r="G120" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H120" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I120" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B121" s="2">
         <v>118</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>156</v>
+      <c r="C121" s="13" t="s">
+        <v>227</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E121" s="2">
+        <v>135</v>
+      </c>
+      <c r="E121" s="21">
         <v>3</v>
       </c>
       <c r="F121" s="2">
         <v>1</v>
       </c>
       <c r="G121" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H121" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I121" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B122" s="2">
         <v>119</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>157</v>
+      <c r="C122" s="13" t="s">
+        <v>228</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E122" s="2">
+        <v>135</v>
+      </c>
+      <c r="E122" s="21">
         <v>3</v>
       </c>
       <c r="F122" s="2">
         <v>1</v>
       </c>
       <c r="G122" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H122" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I122" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B123" s="2">
         <v>120</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>158</v>
+      <c r="C123" s="13" t="s">
+        <v>229</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E123" s="2">
+        <v>135</v>
+      </c>
+      <c r="E123" s="21">
         <v>3</v>
       </c>
       <c r="F123" s="2">
         <v>1</v>
       </c>
       <c r="G123" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H123" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I123" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B124" s="2">
         <v>121</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>159</v>
+      <c r="C124" s="13" t="s">
+        <v>230</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E124" s="2">
+        <v>135</v>
+      </c>
+      <c r="E124" s="21">
         <v>3</v>
       </c>
       <c r="F124" s="2">
         <v>1</v>
       </c>
       <c r="G124" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H124" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I124" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B125" s="2">
         <v>122</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>160</v>
+      <c r="C125" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E125" s="2">
+        <v>135</v>
+      </c>
+      <c r="E125" s="21">
         <v>3</v>
       </c>
       <c r="F125" s="2">
         <v>1</v>
       </c>
       <c r="G125" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H125" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I125" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B126" s="2">
         <v>123</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>161</v>
+      <c r="C126" s="13" t="s">
+        <v>232</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E126" s="2">
+        <v>135</v>
+      </c>
+      <c r="E126" s="21">
         <v>3</v>
       </c>
       <c r="F126" s="2">
         <v>1</v>
       </c>
       <c r="G126" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H126" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I126" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B127" s="2">
         <v>124</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>162</v>
+      <c r="C127" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="E127" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F127" s="2">
         <v>1</v>
       </c>
-      <c r="G127" s="2">
-        <v>0</v>
-      </c>
       <c r="H127" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B128" s="2">
         <v>125</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>163</v>
+      <c r="C128" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="E128" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F128" s="2">
         <v>1</v>
       </c>
-      <c r="G128" s="2">
-        <v>0</v>
-      </c>
       <c r="H128" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B129" s="2">
         <v>126</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>164</v>
+      <c r="C129" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="E129" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F129" s="2">
         <v>1</v>
       </c>
-      <c r="G129" s="2">
-        <v>0</v>
-      </c>
       <c r="H129" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B130" s="2">
         <v>127</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>165</v>
+      <c r="C130" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="E130" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F130" s="2">
         <v>1</v>
       </c>
-      <c r="G130" s="2">
-        <v>0</v>
-      </c>
       <c r="H130" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B131" s="2">
         <v>128</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>166</v>
+      <c r="C131" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="E131" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F131" s="2">
         <v>1</v>
       </c>
-      <c r="G131" s="2">
-        <v>0</v>
-      </c>
       <c r="H131" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B132" s="2">
         <v>129</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>167</v>
+      <c r="C132" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="E132" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F132" s="2">
         <v>1</v>
       </c>
-      <c r="G132" s="2">
-        <v>0</v>
-      </c>
       <c r="H132" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B133" s="2">
         <v>130</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>168</v>
+      <c r="C133" s="13" t="s">
+        <v>122</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="E133" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F133" s="2">
         <v>1</v>
       </c>
-      <c r="G133" s="2">
-        <v>0</v>
-      </c>
       <c r="H133" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B134" s="2">
         <v>131</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>169</v>
+      <c r="C134" s="13" t="s">
+        <v>123</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="E134" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F134" s="2">
         <v>1</v>
       </c>
-      <c r="G134" s="2">
-        <v>0</v>
-      </c>
       <c r="H134" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B135" s="2">
         <v>132</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>170</v>
+      <c r="C135" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="E135" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F135" s="2">
         <v>1</v>
       </c>
-      <c r="G135" s="2">
-        <v>0</v>
-      </c>
       <c r="H135" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B136" s="2">
         <v>133</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>171</v>
+      <c r="C136" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="E136" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F136" s="2">
         <v>1</v>
       </c>
-      <c r="G136" s="2">
-        <v>0</v>
-      </c>
       <c r="H136" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B137" s="2">
         <v>134</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>172</v>
+      <c r="C137" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="E137" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F137" s="2">
         <v>1</v>
       </c>
-      <c r="G137" s="2">
-        <v>0</v>
-      </c>
       <c r="H137" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B138" s="2">
         <v>135</v>
       </c>
-      <c r="C138" s="2" t="s">
-        <v>173</v>
+      <c r="C138" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="E138" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F138" s="2">
         <v>1</v>
       </c>
-      <c r="G138" s="2">
-        <v>0</v>
-      </c>
       <c r="H138" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B139" s="2">
         <v>136</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>174</v>
+      <c r="C139" s="13" t="s">
+        <v>128</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="E139" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F139" s="2">
         <v>1</v>
       </c>
-      <c r="G139" s="2">
-        <v>0</v>
-      </c>
       <c r="H139" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B140" s="2">
         <v>137</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>175</v>
+      <c r="C140" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="E140" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F140" s="2">
         <v>1</v>
       </c>
-      <c r="G140" s="2">
-        <v>0</v>
-      </c>
       <c r="H140" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B141" s="2">
         <v>138</v>
       </c>
-      <c r="C141" s="2" t="s">
-        <v>176</v>
+      <c r="C141" s="13" t="s">
+        <v>130</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="E141" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F141" s="2">
         <v>1</v>
       </c>
-      <c r="G141" s="2">
-        <v>0</v>
-      </c>
       <c r="H141" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B142" s="2">
         <v>139</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>171</v>
+      <c r="C142" s="13" t="s">
+        <v>131</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="E142" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F142" s="2">
         <v>1</v>
       </c>
-      <c r="G142" s="2">
-        <v>0</v>
-      </c>
       <c r="H142" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B143" s="2">
         <v>140</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>177</v>
+      <c r="C143" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="E143" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F143" s="2">
         <v>1</v>
       </c>
-      <c r="G143" s="2">
-        <v>0</v>
-      </c>
       <c r="H143" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B144" s="2">
         <v>141</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>178</v>
+      <c r="C144" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="E144" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F144" s="2">
         <v>1</v>
       </c>
-      <c r="G144" s="2">
-        <v>0</v>
-      </c>
       <c r="H144" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B145" s="2">
         <v>142</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>179</v>
+      <c r="C145" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="E145" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F145" s="2">
         <v>1</v>
       </c>
-      <c r="G145" s="2">
-        <v>0</v>
-      </c>
       <c r="H145" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B146" s="2">
         <v>143</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>180</v>
+      <c r="C146" s="18" t="s">
+        <v>209</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E146" s="2">
+        <v>108</v>
+      </c>
+      <c r="E146" s="21">
         <v>3</v>
       </c>
       <c r="F146" s="2">
         <v>1</v>
       </c>
       <c r="G146" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H146" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I146" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B147" s="2">
         <v>144</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>181</v>
+      <c r="C147" s="18" t="s">
+        <v>210</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E147" s="2">
+        <v>108</v>
+      </c>
+      <c r="E147" s="21">
         <v>3</v>
       </c>
       <c r="F147" s="2">
         <v>1</v>
       </c>
       <c r="G147" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H147" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I147" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B148" s="2">
         <v>145</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>182</v>
+      <c r="C148" s="18" t="s">
+        <v>211</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E148" s="2">
+        <v>108</v>
+      </c>
+      <c r="E148" s="21">
         <v>3</v>
       </c>
       <c r="F148" s="2">
         <v>1</v>
       </c>
       <c r="G148" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H148" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I148" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B149" s="2">
         <v>146</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>183</v>
+      <c r="C149" s="18" t="s">
+        <v>212</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E149" s="2">
+        <v>108</v>
+      </c>
+      <c r="E149" s="21">
         <v>3</v>
       </c>
       <c r="F149" s="2">
         <v>1</v>
       </c>
       <c r="G149" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H149" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I149" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B150" s="2">
         <v>147</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>184</v>
+      <c r="C150" s="18" t="s">
+        <v>213</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E150" s="2">
+        <v>108</v>
+      </c>
+      <c r="E150" s="21">
         <v>3</v>
       </c>
       <c r="F150" s="2">
         <v>1</v>
       </c>
       <c r="G150" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H150" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I150" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B151" s="2">
         <v>148</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>185</v>
+      <c r="C151" s="17" t="s">
+        <v>138</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="E151" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F151" s="2">
         <v>1</v>
       </c>
       <c r="G151" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H151" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I151" s="2">
+        <v>3</v>
+      </c>
+      <c r="J151" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B152" s="2">
         <v>149</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>186</v>
+      <c r="C152" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="E152" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F152" s="2">
         <v>1</v>
       </c>
       <c r="G152" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H152" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I152" s="2">
+        <v>3</v>
+      </c>
+      <c r="J152" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B153" s="2">
         <v>150</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>187</v>
+      <c r="C153" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="E153" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F153" s="2">
         <v>1</v>
       </c>
       <c r="G153" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H153" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I153" s="2">
+        <v>3</v>
+      </c>
+      <c r="J153" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B154" s="2">
         <v>151</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>188</v>
+      <c r="C154" s="17" t="s">
+        <v>141</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="E154" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F154" s="2">
         <v>1</v>
       </c>
       <c r="G154" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H154" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I154" s="2">
+        <v>3</v>
+      </c>
+      <c r="J154" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B155" s="2">
         <v>152</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>189</v>
+      <c r="C155" s="17" t="s">
+        <v>142</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="E155" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F155" s="2">
         <v>1</v>
       </c>
       <c r="G155" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H155" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I155" s="2">
+        <v>3</v>
+      </c>
+      <c r="J155" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="B156" s="2">
         <v>153</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>190</v>
+      <c r="C156" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="E156" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F156" s="2">
         <v>1</v>
       </c>
       <c r="G156" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H156" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I156" s="2">
+        <v>7</v>
+      </c>
+      <c r="J156" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B157" s="2">
         <v>154</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>191</v>
+      <c r="C157" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="E157" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F157" s="2">
         <v>1</v>
       </c>
       <c r="G157" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H157" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I157" s="2">
+        <v>7</v>
+      </c>
+      <c r="J157" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="B158" s="2">
         <v>155</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>192</v>
+      <c r="C158" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="E158" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F158" s="2">
         <v>1</v>
       </c>
       <c r="G158" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H158" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I158" s="2">
+        <v>2</v>
+      </c>
+      <c r="J158" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B159" s="2">
         <v>156</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>193</v>
+      <c r="C159" s="3" t="s">
+        <v>147</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="E159" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F159" s="2">
         <v>1</v>
       </c>
       <c r="G159" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H159" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I159" s="2">
+        <v>2</v>
+      </c>
+      <c r="J159" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B160" s="2">
         <v>157</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>194</v>
+      <c r="C160" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="E160" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F160" s="2">
         <v>1</v>
       </c>
       <c r="G160" s="2">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H160" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I160" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="B161" s="2">
         <v>158</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>195</v>
+      <c r="C161" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="E161" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F161" s="2">
         <v>1</v>
       </c>
       <c r="G161" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H161" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I161" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="B162" s="2">
         <v>159</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>196</v>
+      <c r="C162" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="E162" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F162" s="2">
         <v>1</v>
       </c>
       <c r="G162" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H162" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="I162" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="B163" s="2">
         <v>160</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>197</v>
+      <c r="C163" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="E163" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F163" s="2">
         <v>1</v>
       </c>
       <c r="G163" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H163" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I163" s="2">
+        <v>4</v>
+      </c>
+      <c r="J163" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="B164" s="2">
         <v>161</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>198</v>
+      <c r="C164" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>232</v>
+        <v>150</v>
       </c>
       <c r="E164" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F164" s="2">
         <v>1</v>
       </c>
       <c r="G164" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H164" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I164" s="2">
+        <v>8</v>
+      </c>
+      <c r="J164" s="2">
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B165" s="2">
         <v>162</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E165" s="2">
-        <v>3</v>
+        <v>159</v>
+      </c>
+      <c r="E165" s="22">
+        <v>7</v>
       </c>
       <c r="F165" s="2">
         <v>1</v>
       </c>
       <c r="G165" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H165" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I165" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B166" s="2">
         <v>163</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E166" s="2">
-        <v>3</v>
+        <v>159</v>
+      </c>
+      <c r="E166" s="22">
+        <v>7</v>
       </c>
       <c r="F166" s="2">
         <v>1</v>
       </c>
       <c r="G166" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H166" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I166" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="B167" s="2">
         <v>164</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>201</v>
+      <c r="C167" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E167" s="2">
+        <v>108</v>
+      </c>
+      <c r="E167" s="21">
         <v>3</v>
       </c>
       <c r="F167" s="2">
         <v>1</v>
       </c>
       <c r="G167" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H167" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I167" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="B168" s="2">
         <v>165</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>202</v>
+      <c r="C168" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E168" s="2">
+        <v>108</v>
+      </c>
+      <c r="E168" s="21">
         <v>3</v>
       </c>
       <c r="F168" s="2">
         <v>1</v>
       </c>
       <c r="G168" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H168" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I168" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B169" s="2">
         <v>166</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>203</v>
+      <c r="C169" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="E169" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F169" s="2">
         <v>1</v>
       </c>
       <c r="G169" s="2">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H169" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B170" s="2">
         <v>167</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>204</v>
+      <c r="C170" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="E170" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F170" s="2">
         <v>1</v>
       </c>
       <c r="G170" s="2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H170" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="B171" s="2">
         <v>168</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>205</v>
+      <c r="C171" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>232</v>
+        <v>150</v>
       </c>
       <c r="E171" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F171" s="2">
         <v>1</v>
       </c>
       <c r="G171" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H171" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I171" s="2">
+        <v>9</v>
+      </c>
+      <c r="J171" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="B172" s="2">
         <v>169</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>206</v>
+      <c r="C172" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>232</v>
+        <v>166</v>
       </c>
       <c r="E172" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F172" s="2">
         <v>1</v>
       </c>
       <c r="G172" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H172" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I172" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="B173" s="2">
         <v>170</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>207</v>
+      <c r="C173" s="3" t="s">
+        <v>277</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>232</v>
+        <v>166</v>
       </c>
       <c r="E173" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F173" s="2">
         <v>1</v>
       </c>
       <c r="G173" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H173" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I173" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="B174" s="2">
         <v>171</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>208</v>
+      <c r="C174" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="E174" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F174" s="2">
         <v>1</v>
       </c>
       <c r="G174" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H174" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I174" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B175" s="2">
         <v>172</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>209</v>
+      <c r="C175" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>232</v>
+        <v>171</v>
       </c>
       <c r="E175" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F175" s="2">
         <v>1</v>
       </c>
       <c r="G175" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H175" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B176" s="2">
         <v>173</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>210</v>
+      <c r="C176" s="19" t="s">
+        <v>172</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E176" s="2">
-        <v>3</v>
+        <v>184</v>
+      </c>
+      <c r="E176" s="23">
+        <v>1</v>
       </c>
       <c r="F176" s="2">
         <v>1</v>
       </c>
       <c r="G176" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H176" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B177" s="2">
         <v>174</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>211</v>
+      <c r="C177" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E177" s="2">
-        <v>3</v>
+        <v>184</v>
+      </c>
+      <c r="E177" s="23">
+        <v>1</v>
       </c>
       <c r="F177" s="2">
         <v>1</v>
       </c>
       <c r="G177" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H177" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B178" s="2">
         <v>175</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>212</v>
+      <c r="C178" s="19" t="s">
+        <v>176</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E178" s="2">
-        <v>3</v>
+        <v>184</v>
+      </c>
+      <c r="E178" s="23">
+        <v>1</v>
       </c>
       <c r="F178" s="2">
         <v>1</v>
       </c>
       <c r="G178" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H178" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B179" s="2">
         <v>176</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>213</v>
+      <c r="C179" s="19" t="s">
+        <v>178</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E179" s="2">
-        <v>3</v>
+        <v>184</v>
+      </c>
+      <c r="E179" s="23">
+        <v>1</v>
       </c>
       <c r="F179" s="2">
         <v>1</v>
       </c>
       <c r="G179" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H179" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B180" s="2">
         <v>177</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>214</v>
+      <c r="C180" s="19" t="s">
+        <v>180</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E180" s="2">
-        <v>3</v>
+        <v>184</v>
+      </c>
+      <c r="E180" s="23">
+        <v>1</v>
       </c>
       <c r="F180" s="2">
         <v>1</v>
       </c>
       <c r="G180" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H180" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B181" s="2">
         <v>178</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>215</v>
+      <c r="C181" s="19" t="s">
+        <v>182</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E181" s="2">
-        <v>3</v>
+        <v>184</v>
+      </c>
+      <c r="E181" s="23">
+        <v>1</v>
       </c>
       <c r="F181" s="2">
         <v>1</v>
       </c>
       <c r="G181" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H181" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B182" s="2">
         <v>179</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>216</v>
+      <c r="C182" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E182" s="2">
-        <v>3</v>
+        <v>184</v>
+      </c>
+      <c r="E182" s="23">
+        <v>1</v>
       </c>
       <c r="F182" s="2">
         <v>1</v>
       </c>
       <c r="G182" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H182" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B183" s="2">
         <v>180</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>217</v>
+      <c r="C183" s="20" t="s">
+        <v>175</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E183" s="2">
-        <v>3</v>
+        <v>184</v>
+      </c>
+      <c r="E183" s="23">
+        <v>1</v>
       </c>
       <c r="F183" s="2">
         <v>1</v>
       </c>
       <c r="G183" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H183" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B184" s="2">
         <v>181</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>218</v>
+      <c r="C184" s="20" t="s">
+        <v>177</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E184" s="2">
-        <v>3</v>
+        <v>184</v>
+      </c>
+      <c r="E184" s="23">
+        <v>1</v>
       </c>
       <c r="F184" s="2">
         <v>1</v>
       </c>
       <c r="G184" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H184" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B185" s="2">
         <v>182</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>219</v>
+      <c r="C185" s="20" t="s">
+        <v>179</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E185" s="2">
-        <v>3</v>
+        <v>184</v>
+      </c>
+      <c r="E185" s="23">
+        <v>1</v>
       </c>
       <c r="F185" s="2">
         <v>1</v>
       </c>
       <c r="G185" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H185" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B186" s="2">
         <v>183</v>
       </c>
-      <c r="C186" s="2" t="s">
-        <v>220</v>
+      <c r="C186" s="20" t="s">
+        <v>181</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E186" s="2">
-        <v>3</v>
+        <v>184</v>
+      </c>
+      <c r="E186" s="23">
+        <v>1</v>
       </c>
       <c r="F186" s="2">
         <v>1</v>
       </c>
       <c r="G186" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H186" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B187" s="2">
         <v>184</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>221</v>
+      <c r="C187" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E187" s="2">
-        <v>3</v>
+        <v>184</v>
+      </c>
+      <c r="E187" s="23">
+        <v>1</v>
       </c>
       <c r="F187" s="2">
         <v>1</v>
       </c>
       <c r="G187" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H187" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B188" s="2">
         <v>185</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>222</v>
+      <c r="C188" s="17" t="s">
+        <v>273</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="E188" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F188" s="2">
         <v>1</v>
       </c>
       <c r="G188" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H188" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I188" s="2">
+        <v>3</v>
+      </c>
+      <c r="J188" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B189" s="2">
         <v>186</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>223</v>
+      <c r="C189" s="17" t="s">
+        <v>276</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="E189" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="F189" s="2">
         <v>1</v>
       </c>
       <c r="G189" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H189" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B190" s="2">
-        <v>187</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E190" s="2">
-        <v>3</v>
-      </c>
-      <c r="F190" s="2">
-        <v>1</v>
-      </c>
-      <c r="G190" s="2">
-        <v>0</v>
-      </c>
-      <c r="H190" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B191" s="2">
-        <v>188</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E191" s="2">
-        <v>3</v>
-      </c>
-      <c r="F191" s="2">
-        <v>1</v>
-      </c>
-      <c r="G191" s="2">
-        <v>0</v>
-      </c>
-      <c r="H191" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B192" s="2">
-        <v>189</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E192" s="2">
-        <v>3</v>
-      </c>
-      <c r="F192" s="2">
-        <v>1</v>
-      </c>
-      <c r="G192" s="2">
-        <v>0</v>
-      </c>
-      <c r="H192" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B193" s="2">
-        <v>190</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E193" s="2">
-        <v>3</v>
-      </c>
-      <c r="F193" s="2">
-        <v>1</v>
-      </c>
-      <c r="G193" s="2">
-        <v>0</v>
-      </c>
-      <c r="H193" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B194" s="2">
-        <v>191</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E194" s="2">
-        <v>3</v>
-      </c>
-      <c r="F194" s="2">
-        <v>1</v>
-      </c>
-      <c r="G194" s="2">
-        <v>0</v>
-      </c>
-      <c r="H194" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B195" s="2">
-        <v>192</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E195" s="2">
-        <v>3</v>
-      </c>
-      <c r="F195" s="2">
-        <v>1</v>
-      </c>
-      <c r="G195" s="2">
-        <v>0</v>
-      </c>
-      <c r="H195" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B196" s="2">
-        <v>193</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E196" s="2">
-        <v>3</v>
-      </c>
-      <c r="F196" s="2">
-        <v>1</v>
-      </c>
-      <c r="G196" s="2">
-        <v>0</v>
-      </c>
-      <c r="H196" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B197" s="2">
-        <v>194</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E197" s="2">
-        <v>3</v>
-      </c>
-      <c r="F197" s="2">
-        <v>1</v>
-      </c>
-      <c r="G197" s="2">
-        <v>0</v>
-      </c>
-      <c r="H197" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B198" s="2">
-        <v>195</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E198" s="2">
-        <v>2</v>
-      </c>
-      <c r="F198" s="2">
-        <v>1</v>
-      </c>
-      <c r="G198" s="2">
-        <v>0</v>
-      </c>
-      <c r="H198" s="2">
-        <v>0</v>
-      </c>
+      <c r="I189" s="2">
+        <v>3</v>
+      </c>
+      <c r="J189" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D190" s="3"/>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D191" s="3"/>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D192" s="3"/>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D193" s="3"/>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D194" s="3"/>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D195" s="3"/>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D196" s="3"/>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D197" s="3"/>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D198" s="3"/>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D199" s="3"/>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D200" s="3"/>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D201" s="3"/>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D202" s="3"/>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D203" s="3"/>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D204" s="3"/>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D205" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/道具表.xlsx
+++ b/ExcelConfig/道具表.xlsx
@@ -10,6 +10,9 @@
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="ItemConfig" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ItemConfig!$A$1:$M$189</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -2140,10 +2143,10 @@
   <dimension ref="A1:M205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C173" sqref="C173"/>
+      <selection pane="bottomRight" activeCell="J180" sqref="J180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6238,7 +6241,7 @@
         <v>1</v>
       </c>
       <c r="G162" s="2">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="H162" s="2">
         <v>1</v>

--- a/ExcelConfig/道具表.xlsx
+++ b/ExcelConfig/道具表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26101"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiexiongping/Documents/github/workdir/ExcelConfig/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="-120" windowWidth="15405" windowHeight="9645" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="460" windowWidth="23100" windowHeight="14400" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -13,7 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ItemConfig!$A$1:$M$189</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1755,16 +1765,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1817,7 +1827,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1859,7 +1869,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1894,7 +1904,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2109,16 +2119,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2143,20 +2153,20 @@
   <dimension ref="A1:M205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C166" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J180" sqref="J180"/>
+      <selection pane="bottomRight" activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="2" customWidth="1"/>
@@ -2164,7 +2174,7 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2205,7 +2215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2246,7 +2256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,7 +2297,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -2310,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -2333,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -2356,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -2379,7 +2389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -2402,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -2428,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -2454,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -2480,7 +2490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -2506,7 +2516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -2532,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -2558,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -2584,7 +2594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -2610,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -2636,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -2662,7 +2672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -2688,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
@@ -2714,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
@@ -2740,7 +2750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
@@ -2766,7 +2776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>20</v>
       </c>
@@ -2789,7 +2799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
@@ -2815,7 +2825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>51</v>
       </c>
@@ -2841,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
@@ -2867,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -2893,7 +2903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>25</v>
       </c>
@@ -2916,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="2">
         <v>26</v>
@@ -2940,7 +2950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="2">
         <v>27</v>
@@ -2964,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>28</v>
       </c>
@@ -2987,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>188</v>
       </c>
@@ -3013,7 +3023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>187</v>
       </c>
@@ -3039,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>189</v>
       </c>
@@ -3065,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>190</v>
       </c>
@@ -3091,7 +3101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>191</v>
       </c>
@@ -3117,7 +3127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>192</v>
       </c>
@@ -3143,7 +3153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>193</v>
       </c>
@@ -3169,7 +3179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>194</v>
       </c>
@@ -3195,7 +3205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>195</v>
       </c>
@@ -3221,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>205</v>
       </c>
@@ -3247,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>39</v>
       </c>
@@ -3270,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>40</v>
       </c>
@@ -3293,7 +3303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>41</v>
       </c>
@@ -3316,7 +3326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>42</v>
       </c>
@@ -3339,7 +3349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>43</v>
       </c>
@@ -3362,7 +3372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>44</v>
       </c>
@@ -3385,7 +3395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>45</v>
       </c>
@@ -3408,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>46</v>
       </c>
@@ -3431,7 +3441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <v>47</v>
       </c>
@@ -3454,7 +3464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <v>48</v>
       </c>
@@ -3477,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <v>49</v>
       </c>
@@ -3500,7 +3510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>50</v>
       </c>
@@ -3523,7 +3533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <v>51</v>
       </c>
@@ -3546,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <v>52</v>
       </c>
@@ -3569,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <v>53</v>
       </c>
@@ -3592,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <v>54</v>
       </c>
@@ -3615,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <v>55</v>
       </c>
@@ -3638,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <v>56</v>
       </c>
@@ -3661,7 +3671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <v>57</v>
       </c>
@@ -3684,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <v>58</v>
       </c>
@@ -3707,7 +3717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <v>59</v>
       </c>
@@ -3733,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <v>60</v>
       </c>
@@ -3759,7 +3769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <v>61</v>
       </c>
@@ -3785,7 +3795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <v>62</v>
       </c>
@@ -3811,7 +3821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
         <v>63</v>
       </c>
@@ -3837,7 +3847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
         <v>64</v>
       </c>
@@ -3863,7 +3873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
         <v>65</v>
       </c>
@@ -3889,7 +3899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
         <v>66</v>
       </c>
@@ -3915,7 +3925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
         <v>67</v>
       </c>
@@ -3941,7 +3951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
         <v>68</v>
       </c>
@@ -3967,7 +3977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
         <v>69</v>
       </c>
@@ -3993,7 +4003,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
         <v>70</v>
       </c>
@@ -4019,7 +4029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
         <v>71</v>
       </c>
@@ -4045,7 +4055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
         <v>72</v>
       </c>
@@ -4071,7 +4081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
         <v>73</v>
       </c>
@@ -4097,7 +4107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <v>74</v>
       </c>
@@ -4123,7 +4133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <v>75</v>
       </c>
@@ -4149,7 +4159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
         <v>76</v>
       </c>
@@ -4175,7 +4185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
         <v>77</v>
       </c>
@@ -4201,7 +4211,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
         <v>78</v>
       </c>
@@ -4227,7 +4237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
         <v>79</v>
       </c>
@@ -4253,7 +4263,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
         <v>80</v>
       </c>
@@ -4279,7 +4289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
         <v>81</v>
       </c>
@@ -4305,7 +4315,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
         <v>82</v>
       </c>
@@ -4331,7 +4341,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
         <v>83</v>
       </c>
@@ -4357,7 +4367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
         <v>84</v>
       </c>
@@ -4383,7 +4393,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B88" s="2">
         <v>85</v>
       </c>
@@ -4409,7 +4419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B89" s="2">
         <v>86</v>
       </c>
@@ -4435,7 +4445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B90" s="2">
         <v>87</v>
       </c>
@@ -4461,7 +4471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
         <v>88</v>
       </c>
@@ -4487,7 +4497,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B92" s="2">
         <v>89</v>
       </c>
@@ -4513,7 +4523,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B93" s="2">
         <v>90</v>
       </c>
@@ -4539,7 +4549,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B94" s="2">
         <v>91</v>
       </c>
@@ -4565,7 +4575,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B95" s="2">
         <v>92</v>
       </c>
@@ -4591,7 +4601,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B96" s="2">
         <v>93</v>
       </c>
@@ -4617,7 +4627,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B97" s="2">
         <v>94</v>
       </c>
@@ -4643,7 +4653,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B98" s="2">
         <v>95</v>
       </c>
@@ -4669,7 +4679,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B99" s="2">
         <v>96</v>
       </c>
@@ -4692,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B100" s="2">
         <v>97</v>
       </c>
@@ -4715,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B101" s="2">
         <v>98</v>
       </c>
@@ -4738,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B102" s="2">
         <v>99</v>
       </c>
@@ -4761,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B103" s="2">
         <v>100</v>
       </c>
@@ -4784,7 +4794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B104" s="2">
         <v>101</v>
       </c>
@@ -4810,7 +4820,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B105" s="2">
         <v>102</v>
       </c>
@@ -4836,7 +4846,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B106" s="2">
         <v>103</v>
       </c>
@@ -4865,7 +4875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B107" s="2">
         <v>104</v>
       </c>
@@ -4894,7 +4904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B108" s="2">
         <v>105</v>
       </c>
@@ -4920,7 +4930,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B109" s="2">
         <v>106</v>
       </c>
@@ -4946,7 +4956,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B110" s="2">
         <v>107</v>
       </c>
@@ -4972,7 +4982,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B111" s="2">
         <v>108</v>
       </c>
@@ -4998,7 +5008,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B112" s="2">
         <v>109</v>
       </c>
@@ -5024,7 +5034,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="113" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B113" s="2">
         <v>110</v>
       </c>
@@ -5050,7 +5060,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B114" s="2">
         <v>111</v>
       </c>
@@ -5076,7 +5086,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B115" s="2">
         <v>112</v>
       </c>
@@ -5102,7 +5112,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="116" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B116" s="2">
         <v>113</v>
       </c>
@@ -5129,7 +5139,7 @@
       </c>
       <c r="J116" s="7"/>
     </row>
-    <row r="117" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B117" s="2">
         <v>114</v>
       </c>
@@ -5155,7 +5165,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B118" s="2">
         <v>115</v>
       </c>
@@ -5181,7 +5191,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B119" s="2">
         <v>116</v>
       </c>
@@ -5207,7 +5217,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B120" s="2">
         <v>117</v>
       </c>
@@ -5233,7 +5243,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="121" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B121" s="2">
         <v>118</v>
       </c>
@@ -5259,7 +5269,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B122" s="2">
         <v>119</v>
       </c>
@@ -5285,7 +5295,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B123" s="2">
         <v>120</v>
       </c>
@@ -5311,7 +5321,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="124" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B124" s="2">
         <v>121</v>
       </c>
@@ -5337,7 +5347,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="125" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B125" s="2">
         <v>122</v>
       </c>
@@ -5363,7 +5373,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="126" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B126" s="2">
         <v>123</v>
       </c>
@@ -5389,7 +5399,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="127" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B127" s="2">
         <v>124</v>
       </c>
@@ -5409,7 +5419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B128" s="2">
         <v>125</v>
       </c>
@@ -5429,7 +5439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B129" s="2">
         <v>126</v>
       </c>
@@ -5449,7 +5459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B130" s="2">
         <v>127</v>
       </c>
@@ -5469,7 +5479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B131" s="2">
         <v>128</v>
       </c>
@@ -5489,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B132" s="2">
         <v>129</v>
       </c>
@@ -5509,7 +5519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B133" s="2">
         <v>130</v>
       </c>
@@ -5529,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B134" s="2">
         <v>131</v>
       </c>
@@ -5549,7 +5559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B135" s="2">
         <v>132</v>
       </c>
@@ -5569,7 +5579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B136" s="2">
         <v>133</v>
       </c>
@@ -5589,7 +5599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B137" s="2">
         <v>134</v>
       </c>
@@ -5609,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B138" s="2">
         <v>135</v>
       </c>
@@ -5629,7 +5639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B139" s="2">
         <v>136</v>
       </c>
@@ -5649,7 +5659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B140" s="2">
         <v>137</v>
       </c>
@@ -5669,7 +5679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B141" s="2">
         <v>138</v>
       </c>
@@ -5689,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B142" s="2">
         <v>139</v>
       </c>
@@ -5709,7 +5719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B143" s="2">
         <v>140</v>
       </c>
@@ -5729,7 +5739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:8" ht="17" x14ac:dyDescent="0.25">
       <c r="B144" s="2">
         <v>141</v>
       </c>
@@ -5749,7 +5759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B145" s="2">
         <v>142</v>
       </c>
@@ -5769,7 +5779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B146" s="2">
         <v>143</v>
       </c>
@@ -5795,7 +5805,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B147" s="2">
         <v>144</v>
       </c>
@@ -5821,7 +5831,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B148" s="2">
         <v>145</v>
       </c>
@@ -5847,7 +5857,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B149" s="2">
         <v>146</v>
       </c>
@@ -5873,7 +5883,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B150" s="2">
         <v>147</v>
       </c>
@@ -5899,7 +5909,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B151" s="2">
         <v>148</v>
       </c>
@@ -5928,7 +5938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B152" s="2">
         <v>149</v>
       </c>
@@ -5957,7 +5967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B153" s="2">
         <v>150</v>
       </c>
@@ -5986,7 +5996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B154" s="2">
         <v>151</v>
       </c>
@@ -6015,7 +6025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B155" s="2">
         <v>152</v>
       </c>
@@ -6044,7 +6054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>156</v>
       </c>
@@ -6076,7 +6086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B157" s="2">
         <v>154</v>
       </c>
@@ -6105,7 +6115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>157</v>
       </c>
@@ -6137,7 +6147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B159" s="2">
         <v>156</v>
       </c>
@@ -6166,7 +6176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B160" s="2">
         <v>157</v>
       </c>
@@ -6192,7 +6202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>203</v>
       </c>
@@ -6215,13 +6225,13 @@
         <v>-1</v>
       </c>
       <c r="H161" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>153</v>
       </c>
@@ -6250,7 +6260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>154</v>
       </c>
@@ -6282,7 +6292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>155</v>
       </c>
@@ -6314,7 +6324,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B165" s="2">
         <v>162</v>
       </c>
@@ -6340,7 +6350,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B166" s="2">
         <v>163</v>
       </c>
@@ -6366,7 +6376,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>162</v>
       </c>
@@ -6395,7 +6405,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>163</v>
       </c>
@@ -6424,7 +6434,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B169" s="2">
         <v>166</v>
       </c>
@@ -6447,7 +6457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B170" s="2">
         <v>167</v>
       </c>
@@ -6470,7 +6480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>206</v>
       </c>
@@ -6502,7 +6512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>168</v>
       </c>
@@ -6531,7 +6541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>168</v>
       </c>
@@ -6560,7 +6570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>204</v>
       </c>
@@ -6589,7 +6599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B175" s="2">
         <v>172</v>
       </c>
@@ -6612,7 +6622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B176" s="2">
         <v>173</v>
       </c>
@@ -6635,7 +6645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B177" s="2">
         <v>174</v>
       </c>
@@ -6658,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B178" s="2">
         <v>175</v>
       </c>
@@ -6681,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B179" s="2">
         <v>176</v>
       </c>
@@ -6704,7 +6714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B180" s="2">
         <v>177</v>
       </c>
@@ -6727,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B181" s="2">
         <v>178</v>
       </c>
@@ -6750,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B182" s="2">
         <v>179</v>
       </c>
@@ -6773,7 +6783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B183" s="2">
         <v>180</v>
       </c>
@@ -6796,7 +6806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B184" s="2">
         <v>181</v>
       </c>
@@ -6819,7 +6829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B185" s="2">
         <v>182</v>
       </c>
@@ -6842,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B186" s="2">
         <v>183</v>
       </c>
@@ -6865,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B187" s="2">
         <v>184</v>
       </c>
@@ -6888,7 +6898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B188" s="2">
         <v>185</v>
       </c>
@@ -6917,7 +6927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B189" s="2">
         <v>186</v>
       </c>
@@ -6946,52 +6956,52 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D191" s="3"/>
     </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D192" s="3"/>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D193" s="3"/>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D194" s="3"/>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D195" s="3"/>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D196" s="3"/>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D197" s="3"/>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D198" s="3"/>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D200" s="3"/>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D201" s="3"/>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D202" s="3"/>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D203" s="3"/>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D204" s="3"/>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D205" s="3"/>
     </row>
   </sheetData>

--- a/ExcelConfig/道具表.xlsx
+++ b/ExcelConfig/道具表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26101"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiexiongping/Documents/github/workdir/ExcelConfig/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="460" windowWidth="23100" windowHeight="14400" activeTab="1"/>
+    <workbookView xWindow="1860" yWindow="465" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -93,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="280">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -922,9 +917,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>功能道具</t>
-  </si>
-  <si>
     <t>回魂幡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -979,10 +971,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>钥匙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>月匙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1015,10 +1003,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天赋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天赋：先发制人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1045,15 +1029,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>招募券</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魂灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升星独有材料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1131,10 +1107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指定道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1543,25 +1515,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图纸:1级矿锄</t>
-  </si>
-  <si>
-    <t>图纸:2级矿锄</t>
-  </si>
-  <si>
-    <t>图纸:3级矿锄</t>
-  </si>
-  <si>
-    <t>图纸:4级矿锄</t>
-  </si>
-  <si>
-    <t>图纸:5级矿锄</t>
-  </si>
-  <si>
-    <t>【妖】:九尾狐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>背包上限+20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1583,6 +1536,202 @@
   </si>
   <si>
     <t>天赋：眼观六路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增效工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱指定开启用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇宙中心也用得着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得新天赋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锤炼魂魄，激发潜能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅惑至极的妖女，嗜血而危险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖:九尾狐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>矿锄Ⅰ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>矿锄Ⅱ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>矿锄Ⅲ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>矿锄Ⅳ</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>图纸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>矿锄Ⅴ</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2119,16 +2268,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2153,20 +2302,20 @@
   <dimension ref="A1:M205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C143" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H165" sqref="H165"/>
+      <selection pane="bottomRight" activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="9.5" style="2" customWidth="1"/>
@@ -2174,7 +2323,7 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2215,7 +2364,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -2256,7 +2405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2297,7 +2446,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -2320,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -2343,7 +2492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -2366,7 +2515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -2389,7 +2538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>5</v>
       </c>
@@ -2412,7 +2561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>37</v>
       </c>
@@ -2438,7 +2587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -2464,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -2490,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -2516,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -2542,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -2568,7 +2717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>43</v>
       </c>
@@ -2594,7 +2743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -2620,7 +2769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -2646,7 +2795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -2672,7 +2821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -2698,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
@@ -2724,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>49</v>
       </c>
@@ -2750,7 +2899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
@@ -2776,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>20</v>
       </c>
@@ -2799,7 +2948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>50</v>
       </c>
@@ -2825,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>51</v>
       </c>
@@ -2851,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
@@ -2877,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -2903,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>25</v>
       </c>
@@ -2926,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="2">
         <v>26</v>
@@ -2950,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="2">
         <v>27</v>
@@ -2974,7 +3123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>28</v>
       </c>
@@ -2997,9 +3146,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B32" s="2">
         <v>29</v>
@@ -3023,9 +3172,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B33" s="2">
         <v>30</v>
@@ -3049,9 +3198,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B34" s="2">
         <v>31</v>
@@ -3075,9 +3224,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B35" s="2">
         <v>32</v>
@@ -3101,9 +3250,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B36" s="2">
         <v>33</v>
@@ -3127,9 +3276,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B37" s="2">
         <v>34</v>
@@ -3153,9 +3302,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B38" s="2">
         <v>35</v>
@@ -3179,9 +3328,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B39" s="2">
         <v>36</v>
@@ -3205,9 +3354,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B40" s="2">
         <v>37</v>
@@ -3231,9 +3380,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B41" s="2">
         <v>38</v>
@@ -3257,7 +3406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>39</v>
       </c>
@@ -3280,7 +3429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>40</v>
       </c>
@@ -3303,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>41</v>
       </c>
@@ -3326,7 +3475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>42</v>
       </c>
@@ -3349,7 +3498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>43</v>
       </c>
@@ -3372,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>44</v>
       </c>
@@ -3395,7 +3544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>45</v>
       </c>
@@ -3418,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>46</v>
       </c>
@@ -3441,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>47</v>
       </c>
@@ -3464,7 +3613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>48</v>
       </c>
@@ -3487,7 +3636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
         <v>49</v>
       </c>
@@ -3510,7 +3659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <v>50</v>
       </c>
@@ -3533,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <v>51</v>
       </c>
@@ -3556,7 +3705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <v>52</v>
       </c>
@@ -3579,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <v>53</v>
       </c>
@@ -3602,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
         <v>54</v>
       </c>
@@ -3625,7 +3774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
         <v>55</v>
       </c>
@@ -3648,7 +3797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <v>56</v>
       </c>
@@ -3671,7 +3820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>57</v>
       </c>
@@ -3694,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
         <v>58</v>
       </c>
@@ -3717,12 +3866,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>59</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>108</v>
@@ -3743,12 +3892,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
         <v>60</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>108</v>
@@ -3769,12 +3918,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
         <v>61</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>108</v>
@@ -3795,12 +3944,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <v>62</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>108</v>
@@ -3821,12 +3970,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
         <v>63</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>108</v>
@@ -3847,12 +3996,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B67" s="2">
         <v>64</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>108</v>
@@ -3873,12 +4022,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B68" s="2">
         <v>65</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>108</v>
@@ -3899,12 +4048,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B69" s="2">
         <v>66</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>108</v>
@@ -3925,12 +4074,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B70" s="2">
         <v>67</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>108</v>
@@ -3951,12 +4100,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B71" s="2">
         <v>68</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>108</v>
@@ -3977,12 +4126,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B72" s="2">
         <v>69</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>108</v>
@@ -4003,12 +4152,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B73" s="2">
         <v>70</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>108</v>
@@ -4029,12 +4178,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B74" s="2">
         <v>71</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>108</v>
@@ -4055,12 +4204,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B75" s="2">
         <v>72</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>108</v>
@@ -4081,12 +4230,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B76" s="2">
         <v>73</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>108</v>
@@ -4107,12 +4256,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B77" s="2">
         <v>74</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>108</v>
@@ -4133,12 +4282,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B78" s="2">
         <v>75</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>108</v>
@@ -4159,12 +4308,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B79" s="2">
         <v>76</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>108</v>
@@ -4185,12 +4334,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B80" s="2">
         <v>77</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>108</v>
@@ -4211,12 +4360,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B81" s="2">
         <v>78</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>108</v>
@@ -4237,12 +4386,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B82" s="2">
         <v>79</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>108</v>
@@ -4263,12 +4412,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B83" s="2">
         <v>80</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>108</v>
@@ -4289,12 +4438,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B84" s="2">
         <v>81</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>108</v>
@@ -4315,12 +4464,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B85" s="2">
         <v>82</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>108</v>
@@ -4341,12 +4490,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B86" s="2">
         <v>83</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>108</v>
@@ -4367,12 +4516,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B87" s="2">
         <v>84</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>108</v>
@@ -4393,12 +4542,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B88" s="2">
         <v>85</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>108</v>
@@ -4419,12 +4568,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B89" s="2">
         <v>86</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>108</v>
@@ -4445,12 +4594,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B90" s="2">
         <v>87</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>108</v>
@@ -4471,12 +4620,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B91" s="2">
         <v>88</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>108</v>
@@ -4497,12 +4646,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B92" s="2">
         <v>89</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>108</v>
@@ -4523,12 +4672,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B93" s="2">
         <v>90</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>108</v>
@@ -4549,12 +4698,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="2">
         <v>91</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>108</v>
@@ -4575,12 +4724,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
         <v>92</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>108</v>
@@ -4601,12 +4750,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
         <v>93</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>108</v>
@@ -4627,12 +4776,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B97" s="2">
         <v>94</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>108</v>
@@ -4653,12 +4802,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B98" s="2">
         <v>95</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>108</v>
@@ -4679,7 +4828,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
         <v>96</v>
       </c>
@@ -4687,7 +4836,7 @@
         <v>137</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E99" s="2">
         <v>2</v>
@@ -4702,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B100" s="2">
         <v>97</v>
       </c>
@@ -4710,7 +4859,7 @@
         <v>110</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E100" s="2">
         <v>2</v>
@@ -4725,7 +4874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B101" s="2">
         <v>98</v>
       </c>
@@ -4733,7 +4882,7 @@
         <v>111</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E101" s="2">
         <v>2</v>
@@ -4748,7 +4897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B102" s="2">
         <v>99</v>
       </c>
@@ -4756,7 +4905,7 @@
         <v>112</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E102" s="2">
         <v>2</v>
@@ -4771,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B103" s="2">
         <v>100</v>
       </c>
@@ -4779,7 +4928,7 @@
         <v>113</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="E103" s="2">
         <v>2</v>
@@ -4794,12 +4943,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B104" s="2">
         <v>101</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>136</v>
@@ -4820,12 +4969,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="105" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B105" s="2">
         <v>102</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>136</v>
@@ -4846,7 +4995,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B106" s="2">
         <v>103</v>
       </c>
@@ -4854,7 +5003,7 @@
         <v>114</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="E106" s="2">
         <v>12</v>
@@ -4875,7 +5024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B107" s="2">
         <v>104</v>
       </c>
@@ -4883,7 +5032,7 @@
         <v>115</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="E107" s="2">
         <v>12</v>
@@ -4904,12 +5053,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B108" s="2">
         <v>105</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>135</v>
@@ -4930,12 +5079,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="109" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B109" s="2">
         <v>106</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>135</v>
@@ -4956,12 +5105,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B110" s="2">
         <v>107</v>
       </c>
       <c r="C110" s="13" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>135</v>
@@ -4982,12 +5131,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B111" s="2">
         <v>108</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>135</v>
@@ -5008,12 +5157,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B112" s="2">
         <v>109</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>135</v>
@@ -5034,12 +5183,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="113" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B113" s="2">
         <v>110</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>135</v>
@@ -5060,12 +5209,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B114" s="2">
         <v>111</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>135</v>
@@ -5086,12 +5235,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B115" s="2">
         <v>112</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>135</v>
@@ -5112,12 +5261,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="116" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B116" s="2">
         <v>113</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>135</v>
@@ -5139,12 +5288,12 @@
       </c>
       <c r="J116" s="7"/>
     </row>
-    <row r="117" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B117" s="2">
         <v>114</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>135</v>
@@ -5165,12 +5314,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B118" s="2">
         <v>115</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>135</v>
@@ -5191,12 +5340,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B119" s="2">
         <v>116</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>135</v>
@@ -5217,12 +5366,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="120" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B120" s="2">
         <v>117</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>135</v>
@@ -5243,12 +5392,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="121" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B121" s="2">
         <v>118</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>135</v>
@@ -5269,12 +5418,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B122" s="2">
         <v>119</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>135</v>
@@ -5295,12 +5444,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B123" s="2">
         <v>120</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>135</v>
@@ -5321,12 +5470,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="124" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B124" s="2">
         <v>121</v>
       </c>
       <c r="C124" s="13" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>135</v>
@@ -5347,12 +5496,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="125" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B125" s="2">
         <v>122</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>135</v>
@@ -5373,12 +5522,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="126" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B126" s="2">
         <v>123</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>135</v>
@@ -5399,7 +5548,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="127" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B127" s="2">
         <v>124</v>
       </c>
@@ -5419,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B128" s="2">
         <v>125</v>
       </c>
@@ -5439,7 +5588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B129" s="2">
         <v>126</v>
       </c>
@@ -5459,7 +5608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B130" s="2">
         <v>127</v>
       </c>
@@ -5479,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B131" s="2">
         <v>128</v>
       </c>
@@ -5499,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B132" s="2">
         <v>129</v>
       </c>
@@ -5519,7 +5668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B133" s="2">
         <v>130</v>
       </c>
@@ -5539,7 +5688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B134" s="2">
         <v>131</v>
       </c>
@@ -5559,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B135" s="2">
         <v>132</v>
       </c>
@@ -5579,7 +5728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B136" s="2">
         <v>133</v>
       </c>
@@ -5599,7 +5748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B137" s="2">
         <v>134</v>
       </c>
@@ -5619,7 +5768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B138" s="2">
         <v>135</v>
       </c>
@@ -5639,7 +5788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B139" s="2">
         <v>136</v>
       </c>
@@ -5659,7 +5808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B140" s="2">
         <v>137</v>
       </c>
@@ -5679,7 +5828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B141" s="2">
         <v>138</v>
       </c>
@@ -5699,7 +5848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B142" s="2">
         <v>139</v>
       </c>
@@ -5719,7 +5868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B143" s="2">
         <v>140</v>
       </c>
@@ -5739,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="2:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B144" s="2">
         <v>141</v>
       </c>
@@ -5759,7 +5908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B145" s="2">
         <v>142</v>
       </c>
@@ -5779,12 +5928,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B146" s="2">
         <v>143</v>
       </c>
       <c r="C146" s="18" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>108</v>
@@ -5805,12 +5954,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B147" s="2">
         <v>144</v>
       </c>
       <c r="C147" s="18" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>108</v>
@@ -5831,12 +5980,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B148" s="2">
         <v>145</v>
       </c>
       <c r="C148" s="18" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>108</v>
@@ -5857,12 +6006,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B149" s="2">
         <v>146</v>
       </c>
       <c r="C149" s="18" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>108</v>
@@ -5883,12 +6032,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B150" s="2">
         <v>147</v>
       </c>
       <c r="C150" s="18" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>108</v>
@@ -5909,7 +6058,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B151" s="2">
         <v>148</v>
       </c>
@@ -5917,7 +6066,7 @@
         <v>138</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E151" s="2">
         <v>12</v>
@@ -5938,7 +6087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B152" s="2">
         <v>149</v>
       </c>
@@ -5946,7 +6095,7 @@
         <v>139</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E152" s="2">
         <v>12</v>
@@ -5967,7 +6116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B153" s="2">
         <v>150</v>
       </c>
@@ -5975,7 +6124,7 @@
         <v>140</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E153" s="2">
         <v>12</v>
@@ -5996,7 +6145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B154" s="2">
         <v>151</v>
       </c>
@@ -6004,7 +6153,7 @@
         <v>141</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E154" s="2">
         <v>12</v>
@@ -6025,7 +6174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B155" s="2">
         <v>152</v>
       </c>
@@ -6033,7 +6182,7 @@
         <v>142</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E155" s="2">
         <v>12</v>
@@ -6054,9 +6203,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B156" s="2">
         <v>153</v>
@@ -6065,7 +6214,7 @@
         <v>143</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E156" s="2">
         <v>12</v>
@@ -6086,7 +6235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B157" s="2">
         <v>154</v>
       </c>
@@ -6094,7 +6243,7 @@
         <v>144</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E157" s="2">
         <v>12</v>
@@ -6115,9 +6264,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="2">
         <v>155</v>
@@ -6126,7 +6275,7 @@
         <v>146</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E158" s="2">
         <v>12</v>
@@ -6147,7 +6296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B159" s="2">
         <v>156</v>
       </c>
@@ -6155,7 +6304,7 @@
         <v>147</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E159" s="2">
         <v>12</v>
@@ -6176,7 +6325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B160" s="2">
         <v>157</v>
       </c>
@@ -6184,7 +6333,7 @@
         <v>148</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E160" s="2">
         <v>12</v>
@@ -6202,9 +6351,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B161" s="2">
         <v>158</v>
@@ -6213,7 +6362,7 @@
         <v>149</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E161" s="2">
         <v>9</v>
@@ -6231,18 +6380,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B162" s="2">
         <v>159</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E162" s="2">
         <v>12</v>
@@ -6260,18 +6409,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B163" s="2">
         <v>160</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E163" s="2">
         <v>12</v>
@@ -6292,18 +6441,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B164" s="2">
         <v>161</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>150</v>
+        <v>268</v>
       </c>
       <c r="E164" s="2">
         <v>12</v>
@@ -6324,15 +6473,15 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B165" s="2">
         <v>162</v>
       </c>
       <c r="C165" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D165" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>159</v>
       </c>
       <c r="E165" s="22">
         <v>7</v>
@@ -6350,15 +6499,15 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B166" s="2">
         <v>163</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E166" s="22">
         <v>7</v>
@@ -6376,15 +6525,15 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B167" s="2">
         <v>164</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>108</v>
@@ -6405,15 +6554,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B168" s="2">
         <v>165</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>108</v>
@@ -6434,15 +6583,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B169" s="2">
         <v>166</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>160</v>
+        <v>269</v>
       </c>
       <c r="E169" s="2">
         <v>10</v>
@@ -6457,15 +6606,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B170" s="2">
         <v>167</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>160</v>
+        <v>269</v>
       </c>
       <c r="E170" s="2">
         <v>10</v>
@@ -6480,18 +6629,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B171" s="2">
         <v>168</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="E171" s="2">
         <v>12</v>
@@ -6512,18 +6661,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B172" s="2">
         <v>169</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>166</v>
+        <v>271</v>
       </c>
       <c r="E172" s="2">
         <v>6</v>
@@ -6541,18 +6690,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B173" s="2">
         <v>170</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>166</v>
+        <v>271</v>
       </c>
       <c r="E173" s="2">
         <v>6</v>
@@ -6570,18 +6719,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B174" s="2">
         <v>171</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>169</v>
+        <v>273</v>
       </c>
       <c r="E174" s="2">
         <v>5</v>
@@ -6599,15 +6748,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B175" s="2">
         <v>172</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>171</v>
+        <v>272</v>
       </c>
       <c r="E175" s="2">
         <v>2</v>
@@ -6622,15 +6771,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B176" s="2">
         <v>173</v>
       </c>
       <c r="C176" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E176" s="23">
         <v>1</v>
@@ -6645,15 +6794,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B177" s="2">
         <v>174</v>
       </c>
       <c r="C177" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E177" s="23">
         <v>1</v>
@@ -6668,15 +6817,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B178" s="2">
         <v>175</v>
       </c>
       <c r="C178" s="19" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E178" s="23">
         <v>1</v>
@@ -6691,15 +6840,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B179" s="2">
         <v>176</v>
       </c>
       <c r="C179" s="19" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E179" s="23">
         <v>1</v>
@@ -6714,15 +6863,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B180" s="2">
         <v>177</v>
       </c>
       <c r="C180" s="19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E180" s="23">
         <v>1</v>
@@ -6737,15 +6886,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B181" s="2">
         <v>178</v>
       </c>
       <c r="C181" s="19" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E181" s="23">
         <v>1</v>
@@ -6760,15 +6909,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B182" s="2">
         <v>179</v>
       </c>
       <c r="C182" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E182" s="23">
         <v>1</v>
@@ -6783,15 +6932,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B183" s="2">
         <v>180</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E183" s="23">
         <v>1</v>
@@ -6806,15 +6955,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B184" s="2">
         <v>181</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E184" s="23">
         <v>1</v>
@@ -6829,16 +6978,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B185" s="2">
         <v>182</v>
       </c>
       <c r="C185" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D185" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D185" s="3" t="s">
-        <v>184</v>
-      </c>
       <c r="E185" s="23">
         <v>1</v>
       </c>
@@ -6852,15 +7001,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B186" s="2">
         <v>183</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E186" s="23">
         <v>1</v>
@@ -6875,15 +7024,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B187" s="2">
         <v>184</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E187" s="23">
         <v>1</v>
@@ -6898,15 +7047,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B188" s="2">
         <v>185</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="E188" s="2">
         <v>12</v>
@@ -6927,15 +7076,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="2:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B189" s="2">
         <v>186</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="E189" s="2">
         <v>12</v>
@@ -6956,52 +7105,52 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D190" s="3"/>
     </row>
-    <row r="191" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D191" s="3"/>
     </row>
-    <row r="192" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D192" s="3"/>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D193" s="3"/>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D194" s="3"/>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D195" s="3"/>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D196" s="3"/>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D197" s="3"/>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D198" s="3"/>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D199" s="3"/>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D200" s="3"/>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D201" s="3"/>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D202" s="3"/>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D203" s="3"/>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D204" s="3"/>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D205" s="3"/>
     </row>
   </sheetData>
